--- a/Data.xlsx
+++ b/Data.xlsx
@@ -5,6 +5,7 @@
   <sheets>
     <sheet state="visible" name="output" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="stats" sheetId="2" r:id="rId5"/>
+    <sheet state="hidden" name="hidden" sheetId="3" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -517,6 +518,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -532,17 +534,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>stats!$A$1:$EO$1</c:f>
+              <c:f>hidden!$C$4:$EQ$4</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="64181264"/>
-        <c:axId val="115188735"/>
+        <c:axId val="1876343511"/>
+        <c:axId val="1128110704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="64181264"/>
+        <c:axId val="1876343511"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -594,10 +596,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115188735"/>
+        <c:crossAx val="1128110704"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115188735"/>
+        <c:axId val="1128110704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -672,7 +674,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64181264"/>
+        <c:crossAx val="1876343511"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -720,17 +722,17 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>stats!$A$7:$EO$7</c:f>
+              <c:f>hidden!$C$7:$EQ$7</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="400028056"/>
-        <c:axId val="1215653357"/>
+        <c:axId val="859733228"/>
+        <c:axId val="631088392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="400028056"/>
+        <c:axId val="859733228"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -782,10 +784,10 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1215653357"/>
+        <c:crossAx val="631088392"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1215653357"/>
+        <c:axId val="631088392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -860,7 +862,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="400028056"/>
+        <c:crossAx val="859733228"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
@@ -894,10 +896,10 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>139</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>952500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -920,9 +922,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>276225</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190500</xdr:rowOff>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="5715000" cy="3533775"/>
     <xdr:graphicFrame>
@@ -943,6 +945,10 @@
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -90364,4894 +90370,4905 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B1" s="2">
+        <f>COUNTIF(output!$B$2:$B$618,"won")</f>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B2" s="2">
+        <f>COUNTIF(output!$B$2:$B$618,"lost")</f>
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" s="2">
+        <f>COUNTIF(output!$B$2:$B$618,"aborted")</f>
+        <v>15</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="1">
       <c r="A1" s="2">
+        <f>COUNTA(output!C2:EQ2)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2">
+        <f>COUNTA(output!C3:EQ3)</f>
+        <v>101</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2">
+        <f>COUNTA(output!C4:EQ4)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2">
+        <f>COUNTA(output!C5:EQ5)</f>
+        <v>84</v>
+      </c>
+      <c r="C4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>74</v>
+      </c>
+      <c r="D4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>56</v>
+      </c>
+      <c r="E4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>23</v>
+      </c>
+      <c r="F4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>13</v>
+      </c>
+      <c r="G4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>15</v>
+      </c>
+      <c r="H4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>4</v>
+      </c>
+      <c r="K4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>3</v>
+      </c>
+      <c r="M4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="P4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="S4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>3</v>
+      </c>
+      <c r="T4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="V4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="X4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AE4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AG4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="AH4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AI4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AL4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AN4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="AP4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="AR4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AS4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AT4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AU4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AV4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="AW4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AY4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="AZ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="BA4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="BB4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="BC4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="BD4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="BE4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="BF4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>3</v>
+      </c>
+      <c r="BG4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="BH4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="BI4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="BJ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="BK4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="BL4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>4</v>
+      </c>
+      <c r="BM4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="BN4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="BO4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="BP4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="BQ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>7</v>
+      </c>
+      <c r="BR4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="BS4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="BT4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="BU4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>8</v>
+      </c>
+      <c r="BV4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>11</v>
+      </c>
+      <c r="BW4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>7</v>
+      </c>
+      <c r="BX4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="BY4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>8</v>
+      </c>
+      <c r="BZ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>9</v>
+      </c>
+      <c r="CA4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>8</v>
+      </c>
+      <c r="CB4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>8</v>
+      </c>
+      <c r="CC4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>9</v>
+      </c>
+      <c r="CD4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="CE4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>11</v>
+      </c>
+      <c r="CF4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>4</v>
+      </c>
+      <c r="CG4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>9</v>
+      </c>
+      <c r="CH4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>10</v>
+      </c>
+      <c r="CI4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>4</v>
+      </c>
+      <c r="CJ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>10</v>
+      </c>
+      <c r="CK4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>8</v>
+      </c>
+      <c r="CL4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="CM4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>11</v>
+      </c>
+      <c r="CN4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>10</v>
+      </c>
+      <c r="CO4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>9</v>
+      </c>
+      <c r="CP4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="CQ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="CR4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="CS4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="CT4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="CU4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>6</v>
+      </c>
+      <c r="CV4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>5</v>
+      </c>
+      <c r="CW4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>7</v>
+      </c>
+      <c r="CX4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>4</v>
+      </c>
+      <c r="CY4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="CZ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>3</v>
+      </c>
+      <c r="DA4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>3</v>
+      </c>
+      <c r="DB4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="DC4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="DD4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DE4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="DF4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="DG4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="DH4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>4</v>
+      </c>
+      <c r="DI4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="DJ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="DK4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DL4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DM4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DN4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>2</v>
+      </c>
+      <c r="DO4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DP4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DQ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="DR4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DS4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="DT4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DU4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DV4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DW4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DX4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DY4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="DZ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EA4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EB4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EC4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="ED4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EE4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EF4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EG4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EH4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EI4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EJ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EK4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EL4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EM4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EN4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EO4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>1</v>
+      </c>
+      <c r="EP4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+      <c r="EQ4" s="2">
+        <f>COUNTIF(hidden!$A$1:$A$617, COLUMN())</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2">
+        <f>COUNTA(output!C6:EQ6)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2">
+        <f>COUNTA(output!C7:EQ7)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2">
+        <f>COUNTA(output!C8:EQ8)</f>
+        <v>74</v>
+      </c>
+      <c r="C7" s="2">
         <f>AVERAGE(output!C2:C618)</f>
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="D7" s="2">
         <f>AVERAGE(output!D2:D618)</f>
         <v>3.783337989</v>
       </c>
-      <c r="C1" s="2">
+      <c r="E7" s="2">
         <f>AVERAGE(output!E2:E618)</f>
         <v>4.500037854</v>
       </c>
-      <c r="D1" s="2">
+      <c r="F7" s="2">
         <f>AVERAGE(output!F2:F618)</f>
         <v>4.235345737</v>
       </c>
-      <c r="E1" s="2">
+      <c r="G7" s="2">
         <f>AVERAGE(output!G2:G618)</f>
         <v>3.770574923</v>
       </c>
-      <c r="F1" s="2">
+      <c r="H7" s="2">
         <f>AVERAGE(output!H2:H618)</f>
         <v>3.525135889</v>
       </c>
-      <c r="G1" s="2">
+      <c r="I7" s="2">
         <f>AVERAGE(output!I2:I618)</f>
         <v>3.319041012</v>
       </c>
-      <c r="H1" s="2">
+      <c r="J7" s="2">
         <f>AVERAGE(output!J2:J618)</f>
         <v>3.123439449</v>
       </c>
-      <c r="I1" s="2">
+      <c r="K7" s="2">
         <f>AVERAGE(output!K2:K618)</f>
         <v>2.977593983</v>
       </c>
-      <c r="J1" s="2">
+      <c r="L7" s="2">
         <f>AVERAGE(output!L2:L618)</f>
         <v>2.975783205</v>
       </c>
-      <c r="K1" s="2">
+      <c r="M7" s="2">
         <f>AVERAGE(output!M2:M618)</f>
         <v>2.819099415</v>
       </c>
-      <c r="L1" s="2">
+      <c r="N7" s="2">
         <f>AVERAGE(output!N2:N618)</f>
         <v>2.807063858</v>
       </c>
-      <c r="M1" s="2">
+      <c r="O7" s="2">
         <f>AVERAGE(output!O2:O618)</f>
         <v>2.70770144</v>
       </c>
-      <c r="N1" s="2">
+      <c r="P7" s="2">
         <f>AVERAGE(output!P2:P618)</f>
         <v>2.654156747</v>
       </c>
-      <c r="O1" s="2">
+      <c r="Q7" s="2">
         <f>AVERAGE(output!Q2:Q618)</f>
         <v>2.585004424</v>
       </c>
-      <c r="P1" s="2">
+      <c r="R7" s="2">
         <f>AVERAGE(output!R2:R618)</f>
         <v>2.551335136</v>
       </c>
-      <c r="Q1" s="2">
+      <c r="S7" s="2">
         <f>AVERAGE(output!S2:S618)</f>
         <v>2.467836226</v>
       </c>
-      <c r="R1" s="2">
+      <c r="T7" s="2">
         <f>AVERAGE(output!T2:T618)</f>
         <v>2.316398111</v>
       </c>
-      <c r="S1" s="2">
+      <c r="U7" s="2">
         <f>AVERAGE(output!U2:U618)</f>
         <v>2.252709106</v>
       </c>
-      <c r="T1" s="2">
+      <c r="V7" s="2">
         <f>AVERAGE(output!V2:V618)</f>
         <v>2.089422471</v>
       </c>
-      <c r="U1" s="2">
+      <c r="W7" s="2">
         <f>AVERAGE(output!W2:W618)</f>
         <v>2.097425747</v>
       </c>
-      <c r="V1" s="2">
+      <c r="X7" s="2">
         <f>AVERAGE(output!X2:X618)</f>
         <v>2.011164281</v>
       </c>
-      <c r="W1" s="2">
+      <c r="Y7" s="2">
         <f>AVERAGE(output!Y2:Y618)</f>
         <v>2.004867996</v>
       </c>
-      <c r="X1" s="2">
+      <c r="Z7" s="2">
         <f>AVERAGE(output!Z2:Z618)</f>
         <v>1.949107353</v>
       </c>
-      <c r="Y1" s="2">
+      <c r="AA7" s="2">
         <f>AVERAGE(output!AA2:AA618)</f>
         <v>1.930735556</v>
       </c>
-      <c r="Z1" s="2">
+      <c r="AB7" s="2">
         <f>AVERAGE(output!AB2:AB618)</f>
         <v>1.864970837</v>
       </c>
-      <c r="AA1" s="2">
+      <c r="AC7" s="2">
         <f>AVERAGE(output!AC2:AC618)</f>
         <v>1.768729791</v>
       </c>
-      <c r="AB1" s="2">
+      <c r="AD7" s="2">
         <f>AVERAGE(output!AD2:AD618)</f>
         <v>1.786371545</v>
       </c>
-      <c r="AC1" s="2">
+      <c r="AE7" s="2">
         <f>AVERAGE(output!AE2:AE618)</f>
         <v>1.756225472</v>
       </c>
-      <c r="AD1" s="2">
+      <c r="AF7" s="2">
         <f>AVERAGE(output!AF2:AF618)</f>
         <v>1.674416718</v>
       </c>
-      <c r="AE1" s="2">
+      <c r="AG7" s="2">
         <f>AVERAGE(output!AG2:AG618)</f>
         <v>1.577378405</v>
       </c>
-      <c r="AF1" s="2">
+      <c r="AH7" s="2">
         <f>AVERAGE(output!AH2:AH618)</f>
         <v>1.567729503</v>
       </c>
-      <c r="AG1" s="2">
+      <c r="AI7" s="2">
         <f>AVERAGE(output!AI2:AI618)</f>
         <v>1.487381654</v>
       </c>
-      <c r="AH1" s="2">
+      <c r="AJ7" s="2">
         <f>AVERAGE(output!AJ2:AJ618)</f>
         <v>1.371540313</v>
       </c>
-      <c r="AI1" s="2">
+      <c r="AK7" s="2">
         <f>AVERAGE(output!AK2:AK618)</f>
         <v>1.335816373</v>
       </c>
-      <c r="AJ1" s="2">
+      <c r="AL7" s="2">
         <f>AVERAGE(output!AL2:AL618)</f>
         <v>1.269923373</v>
       </c>
-      <c r="AK1" s="2">
+      <c r="AM7" s="2">
         <f>AVERAGE(output!AM2:AM618)</f>
         <v>1.22450851</v>
       </c>
-      <c r="AL1" s="2">
+      <c r="AN7" s="2">
         <f>AVERAGE(output!AN2:AN618)</f>
         <v>1.149821373</v>
       </c>
-      <c r="AM1" s="2">
+      <c r="AO7" s="2">
         <f>AVERAGE(output!AO2:AO618)</f>
         <v>1.156012229</v>
       </c>
-      <c r="AN1" s="2">
+      <c r="AP7" s="2">
         <f>AVERAGE(output!AP2:AP618)</f>
         <v>1.095351752</v>
       </c>
-      <c r="AO1" s="2">
+      <c r="AQ7" s="2">
         <f>AVERAGE(output!AQ2:AQ618)</f>
         <v>1.103449672</v>
       </c>
-      <c r="AP1" s="2">
+      <c r="AR7" s="2">
         <f>AVERAGE(output!AR2:AR618)</f>
         <v>1.032221237</v>
       </c>
-      <c r="AQ1" s="2">
+      <c r="AS7" s="2">
         <f>AVERAGE(output!AS2:AS618)</f>
         <v>1.032472995</v>
       </c>
-      <c r="AR1" s="2">
+      <c r="AT7" s="2">
         <f>AVERAGE(output!AT2:AT618)</f>
         <v>0.9226152743</v>
       </c>
-      <c r="AS1" s="2">
+      <c r="AU7" s="2">
         <f>AVERAGE(output!AU2:AU618)</f>
         <v>0.8403672097</v>
       </c>
-      <c r="AT1" s="2">
+      <c r="AV7" s="2">
         <f>AVERAGE(output!AV2:AV618)</f>
         <v>0.8387973975</v>
       </c>
-      <c r="AU1" s="2">
+      <c r="AW7" s="2">
         <f>AVERAGE(output!AW2:AW618)</f>
         <v>0.8141786528</v>
       </c>
-      <c r="AV1" s="2">
+      <c r="AX7" s="2">
         <f>AVERAGE(output!AX2:AX618)</f>
         <v>0.7238278984</v>
       </c>
-      <c r="AW1" s="2">
+      <c r="AY7" s="2">
         <f>AVERAGE(output!AY2:AY618)</f>
         <v>0.7013094589</v>
       </c>
-      <c r="AX1" s="2">
+      <c r="AZ7" s="2">
         <f>AVERAGE(output!AZ2:AZ618)</f>
         <v>0.6821266067</v>
       </c>
-      <c r="AY1" s="2">
+      <c r="BA7" s="2">
         <f>AVERAGE(output!BA2:BA618)</f>
         <v>0.6810732094</v>
       </c>
-      <c r="AZ1" s="2">
+      <c r="BB7" s="2">
         <f>AVERAGE(output!BB2:BB618)</f>
         <v>0.6811179396</v>
       </c>
-      <c r="BA1" s="2">
+      <c r="BC7" s="2">
         <f>AVERAGE(output!BC2:BC618)</f>
         <v>0.6410758288</v>
       </c>
-      <c r="BB1" s="2">
+      <c r="BD7" s="2">
         <f>AVERAGE(output!BD2:BD618)</f>
         <v>0.6131191312</v>
       </c>
-      <c r="BC1" s="2">
+      <c r="BE7" s="2">
         <f>AVERAGE(output!BE2:BE618)</f>
         <v>0.5685016086</v>
       </c>
-      <c r="BD1" s="2">
+      <c r="BF7" s="2">
         <f>AVERAGE(output!BF2:BF618)</f>
         <v>0.5276988942</v>
       </c>
-      <c r="BE1" s="2">
+      <c r="BG7" s="2">
         <f>AVERAGE(output!BG2:BG618)</f>
         <v>0.4751152322</v>
       </c>
-      <c r="BF1" s="2">
+      <c r="BH7" s="2">
         <f>AVERAGE(output!BH2:BH618)</f>
         <v>0.4546768497</v>
       </c>
-      <c r="BG1" s="2">
+      <c r="BI7" s="2">
         <f>AVERAGE(output!BI2:BI618)</f>
         <v>0.4554676227</v>
       </c>
-      <c r="BH1" s="2">
+      <c r="BJ7" s="2">
         <f>AVERAGE(output!BJ2:BJ618)</f>
         <v>0.4562839582</v>
       </c>
-      <c r="BI1" s="2">
+      <c r="BK7" s="2">
         <f>AVERAGE(output!BK2:BK618)</f>
         <v>0.4683978583</v>
       </c>
-      <c r="BJ1" s="2">
+      <c r="BL7" s="2">
         <f>AVERAGE(output!BL2:BL618)</f>
         <v>0.4739093519</v>
       </c>
-      <c r="BK1" s="2">
+      <c r="BM7" s="2">
         <f>AVERAGE(output!BM2:BM618)</f>
         <v>0.4747621261</v>
       </c>
-      <c r="BL1" s="2">
+      <c r="BN7" s="2">
         <f>AVERAGE(output!BN2:BN618)</f>
         <v>0.3880852981</v>
       </c>
-      <c r="BM1" s="2">
+      <c r="BO7" s="2">
         <f>AVERAGE(output!BO2:BO618)</f>
         <v>0.4060244905</v>
       </c>
-      <c r="BN1" s="2">
+      <c r="BP7" s="2">
         <f>AVERAGE(output!BP2:BP618)</f>
         <v>0.3881694072</v>
       </c>
-      <c r="BO1" s="2">
+      <c r="BQ7" s="2">
         <f>AVERAGE(output!BQ2:BQ618)</f>
         <v>0.3262591049</v>
       </c>
-      <c r="BP1" s="2">
+      <c r="BR7" s="2">
         <f>AVERAGE(output!BR2:BR618)</f>
         <v>0.3274044097</v>
       </c>
-      <c r="BQ1" s="2">
+      <c r="BS7" s="2">
         <f>AVERAGE(output!BS2:BS618)</f>
         <v>0.3236715445</v>
       </c>
-      <c r="BR1" s="2">
+      <c r="BT7" s="2">
         <f>AVERAGE(output!BT2:BT618)</f>
         <v>0.3093638848</v>
       </c>
-      <c r="BS1" s="2">
+      <c r="BU7" s="2">
         <f>AVERAGE(output!BU2:BU618)</f>
         <v>0.3401711872</v>
       </c>
-      <c r="BT1" s="2">
+      <c r="BV7" s="2">
         <f>AVERAGE(output!BV2:BV618)</f>
         <v>0.3402636081</v>
       </c>
-      <c r="BU1" s="2">
+      <c r="BW7" s="2">
         <f>AVERAGE(output!BW2:BW618)</f>
         <v>0.3284936307</v>
       </c>
-      <c r="BV1" s="2">
+      <c r="BX7" s="2">
         <f>AVERAGE(output!BX2:BX618)</f>
         <v>0.3479091448</v>
       </c>
-      <c r="BW1" s="2">
+      <c r="BY7" s="2">
         <f>AVERAGE(output!BY2:BY618)</f>
         <v>0.3630063266</v>
       </c>
-      <c r="BX1" s="2">
+      <c r="BZ7" s="2">
         <f>AVERAGE(output!BZ2:BZ618)</f>
         <v>0.3780562435</v>
       </c>
-      <c r="BY1" s="2">
+      <c r="CA7" s="2">
         <f>AVERAGE(output!CA2:CA618)</f>
         <v>0.3953490836</v>
       </c>
-      <c r="BZ1" s="2">
+      <c r="CB7" s="2">
         <f>AVERAGE(output!CB2:CB618)</f>
         <v>0.3588777782</v>
       </c>
-      <c r="CA1" s="2">
+      <c r="CC7" s="2">
         <f>AVERAGE(output!CC2:CC618)</f>
         <v>0.3697570879</v>
       </c>
-      <c r="CB1" s="2">
+      <c r="CD7" s="2">
         <f>AVERAGE(output!CD2:CD618)</f>
         <v>0.3725501586</v>
       </c>
-      <c r="CC1" s="2">
+      <c r="CE7" s="2">
         <f>AVERAGE(output!CE2:CE618)</f>
         <v>0.3216234716</v>
       </c>
-      <c r="CD1" s="2">
+      <c r="CF7" s="2">
         <f>AVERAGE(output!CF2:CF618)</f>
         <v>0.2898847766</v>
       </c>
-      <c r="CE1" s="2">
+      <c r="CG7" s="2">
         <f>AVERAGE(output!CG2:CG618)</f>
         <v>0.3055654164</v>
       </c>
-      <c r="CF1" s="2">
+      <c r="CH7" s="2">
         <f>AVERAGE(output!CH2:CH618)</f>
         <v>0.3218850441</v>
       </c>
-      <c r="CG1" s="2">
+      <c r="CI7" s="2">
         <f>AVERAGE(output!CI2:CI618)</f>
         <v>0.308322458</v>
       </c>
-      <c r="CH1" s="2">
+      <c r="CJ7" s="2">
         <f>AVERAGE(output!CJ2:CJ618)</f>
         <v>0.2942800085</v>
       </c>
-      <c r="CI1" s="2">
+      <c r="CK7" s="2">
         <f>AVERAGE(output!CK2:CK618)</f>
         <v>0.2772790549</v>
       </c>
-      <c r="CJ1" s="2">
+      <c r="CL7" s="2">
         <f>AVERAGE(output!CL2:CL618)</f>
         <v>0.2631233512</v>
       </c>
-      <c r="CK1" s="2">
+      <c r="CM7" s="2">
         <f>AVERAGE(output!CM2:CM618)</f>
         <v>0.2685185094</v>
       </c>
-      <c r="CL1" s="2">
+      <c r="CN7" s="2">
         <f>AVERAGE(output!CN2:CN618)</f>
         <v>0.2702849516</v>
       </c>
-      <c r="CM1" s="2">
+      <c r="CO7" s="2">
         <f>AVERAGE(output!CO2:CO618)</f>
         <v>0.2901497404</v>
       </c>
-      <c r="CN1" s="2">
+      <c r="CP7" s="2">
         <f>AVERAGE(output!CP2:CP618)</f>
         <v>0.3267494824</v>
       </c>
-      <c r="CO1" s="2">
+      <c r="CQ7" s="2">
         <f>AVERAGE(output!CQ2:CQ618)</f>
         <v>0.3370525722</v>
       </c>
-      <c r="CP1" s="2">
+      <c r="CR7" s="2">
         <f>AVERAGE(output!CR2:CR618)</f>
         <v>0.3333064041</v>
       </c>
-      <c r="CQ1" s="2">
+      <c r="CS7" s="2">
         <f>AVERAGE(output!CS2:CS618)</f>
         <v>0.3614731424</v>
       </c>
-      <c r="CR1" s="2">
+      <c r="CT7" s="2">
         <f>AVERAGE(output!CT2:CT618)</f>
         <v>0.4256091248</v>
       </c>
-      <c r="CS1" s="2">
+      <c r="CU7" s="2">
         <f>AVERAGE(output!CU2:CU618)</f>
         <v>0.4654416902</v>
       </c>
-      <c r="CT1" s="2">
+      <c r="CV7" s="2">
         <f>AVERAGE(output!CV2:CV618)</f>
         <v>0.497705504</v>
       </c>
-      <c r="CU1" s="2">
+      <c r="CW7" s="2">
         <f>AVERAGE(output!CW2:CW618)</f>
         <v>0.4765853587</v>
       </c>
-      <c r="CV1" s="2">
+      <c r="CX7" s="2">
         <f>AVERAGE(output!CX2:CX618)</f>
         <v>0.5307413028</v>
       </c>
-      <c r="CW1" s="2">
+      <c r="CY7" s="2">
         <f>AVERAGE(output!CY2:CY618)</f>
         <v>0.5990703739</v>
       </c>
-      <c r="CX1" s="2">
+      <c r="CZ7" s="2">
         <f>AVERAGE(output!CZ2:CZ618)</f>
         <v>0.7388534612</v>
       </c>
-      <c r="CY1" s="2">
+      <c r="DA7" s="2">
         <f>AVERAGE(output!DA2:DA618)</f>
         <v>0.7703115505</v>
       </c>
-      <c r="CZ1" s="2">
+      <c r="DB7" s="2">
         <f>AVERAGE(output!DB2:DB618)</f>
         <v>0.9845225125</v>
       </c>
-      <c r="DA1" s="2">
+      <c r="DC7" s="2">
         <f>AVERAGE(output!DC2:DC618)</f>
         <v>1.133408678</v>
       </c>
-      <c r="DB1" s="2">
+      <c r="DD7" s="2">
         <f>AVERAGE(output!DD2:DD618)</f>
         <v>1.351155605</v>
       </c>
-      <c r="DC1" s="2">
+      <c r="DE7" s="2">
         <f>AVERAGE(output!DE2:DE618)</f>
         <v>1.447117058</v>
       </c>
-      <c r="DD1" s="2">
+      <c r="DF7" s="2">
         <f>AVERAGE(output!DF2:DF618)</f>
         <v>0.9887802066</v>
       </c>
-      <c r="DE1" s="2">
+      <c r="DG7" s="2">
         <f>AVERAGE(output!DG2:DG618)</f>
         <v>0.9949875002</v>
       </c>
-      <c r="DF1" s="2">
+      <c r="DH7" s="2">
         <f>AVERAGE(output!DH2:DH618)</f>
         <v>1.0890529</v>
       </c>
-      <c r="DG1" s="2">
+      <c r="DI7" s="2">
         <f>AVERAGE(output!DI2:DI618)</f>
         <v>0.9172932695</v>
       </c>
-      <c r="DH1" s="2">
+      <c r="DJ7" s="2">
         <f>AVERAGE(output!DJ2:DJ618)</f>
         <v>0.9449875002</v>
       </c>
-      <c r="DI1" s="2">
+      <c r="DK7" s="2">
         <f>AVERAGE(output!DK2:DK618)</f>
         <v>1.490601563</v>
       </c>
-      <c r="DJ1" s="2">
+      <c r="DL7" s="2">
         <f>AVERAGE(output!DL2:DL618)</f>
         <v>1.723308334</v>
       </c>
-      <c r="DK1" s="2">
+      <c r="DM7" s="2">
         <f>AVERAGE(output!DM2:DM618)</f>
         <v>2.1509775</v>
       </c>
-      <c r="DL1" s="2">
+      <c r="DN7" s="2">
         <f>AVERAGE(output!DN2:DN618)</f>
         <v>2.067970001</v>
       </c>
-      <c r="DM1" s="2">
+      <c r="DO7" s="2">
         <f>AVERAGE(output!DO2:DO618)</f>
         <v>1.9509775</v>
       </c>
-      <c r="DN1" s="2">
+      <c r="DP7" s="2">
         <f>AVERAGE(output!DP2:DP618)</f>
         <v>1.7509775</v>
       </c>
-      <c r="DO1" s="2">
+      <c r="DQ7" s="2">
         <f>AVERAGE(output!DQ2:DQ618)</f>
         <v>3.779950001</v>
       </c>
-      <c r="DP1" s="2">
+      <c r="DR7" s="2">
         <f>AVERAGE(output!DR2:DR618)</f>
         <v>3.446616668</v>
       </c>
-      <c r="DQ1" s="2">
+      <c r="DS7" s="2">
         <f>AVERAGE(output!DS2:DS618)</f>
         <v>2.584962501</v>
       </c>
-      <c r="DR1" s="2">
+      <c r="DT7" s="2">
         <f>AVERAGE(output!DT2:DT618)</f>
         <v>4.669925001</v>
       </c>
-      <c r="DS1" s="2">
+      <c r="DU7" s="2">
         <f>AVERAGE(output!DU2:DU618)</f>
         <v>5.084962501</v>
       </c>
-      <c r="DT1" s="2">
+      <c r="DV7" s="2">
         <f>AVERAGE(output!DV2:DV618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="DU1" s="2">
+      <c r="DW7" s="2">
         <f>AVERAGE(output!DW2:DW618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="DV1" s="2">
+      <c r="DX7" s="2">
         <f>AVERAGE(output!DX2:DX618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="DW1" s="2">
+      <c r="DY7" s="2">
         <f>AVERAGE(output!DY2:DY618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="DX1" s="2">
+      <c r="DZ7" s="2">
         <f>AVERAGE(output!DZ2:DZ618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="DY1" s="2">
+      <c r="EA7" s="2">
         <f>AVERAGE(output!EA2:EA618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="DZ1" s="2">
+      <c r="EB7" s="2">
         <f>AVERAGE(output!EB2:EB618)</f>
         <v>3.169925001</v>
       </c>
-      <c r="EA1" s="2">
+      <c r="EC7" s="2">
         <f>AVERAGE(output!EC2:EC618)</f>
         <v>4.754887502</v>
       </c>
-      <c r="EB1" s="2">
+      <c r="ED7" s="2">
         <f>AVERAGE(output!ED2:ED618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="EC1" s="2">
+      <c r="EE7" s="2">
         <f>AVERAGE(output!EE2:EE618)</f>
         <v>3.169925001</v>
       </c>
-      <c r="ED1" s="2">
+      <c r="EF7" s="2">
         <f>AVERAGE(output!EF2:EF618)</f>
         <v>3.169925001</v>
       </c>
-      <c r="EE1" s="2">
+      <c r="EG7" s="2">
         <f>AVERAGE(output!EG2:EG618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="EF1" s="2">
+      <c r="EH7" s="2">
         <f>AVERAGE(output!EH2:EH618)</f>
         <v>3.169925001</v>
       </c>
-      <c r="EG1" s="2">
+      <c r="EI7" s="2">
         <f>AVERAGE(output!EI2:EI618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="EH1" s="2">
+      <c r="EJ7" s="2">
         <f>AVERAGE(output!EJ2:EJ618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="EI1" s="2">
+      <c r="EK7" s="2">
         <f>AVERAGE(output!EK2:EK618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="EJ1" s="2">
+      <c r="EL7" s="2">
         <f>AVERAGE(output!EL2:EL618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="EK1" s="2">
+      <c r="EM7" s="2">
         <f>AVERAGE(output!EM2:EM618)</f>
         <v>4.169925001</v>
       </c>
-      <c r="EL1" s="2">
+      <c r="EN7" s="2">
         <f>AVERAGE(output!EN2:EN618)</f>
         <v>2.584962501</v>
       </c>
-      <c r="EM1" s="2">
+      <c r="EO7" s="2">
         <f>AVERAGE(output!EO2:EO618)</f>
         <v>2.584962501</v>
       </c>
-      <c r="EN1" s="2">
+      <c r="EP7" s="2">
         <f>AVERAGE(output!EP2:EP618)</f>
         <v>1</v>
       </c>
-      <c r="EO1" s="2">
+      <c r="EQ7" s="2">
         <f>AVERAGE(output!EQ2:EQ618)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="B3" s="2">
-        <f>COUNTIF(output!$B$2:$B$618,"won")</f>
-        <v>267</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="B4" s="2">
-        <f>COUNTIF(output!$B$2:$B$618,"lost")</f>
-        <v>335</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="B5" s="2">
-        <f>COUNTIF(output!$B$2:$B$618,"aborted")</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2">
-        <f t="shared" ref="A7:EO7" si="1">COUNTIF($A$9:$A$625, COLUMN())</f>
-        <v>0</v>
-      </c>
-      <c r="B7" s="2">
-        <f t="shared" si="1"/>
-        <v>82</v>
-      </c>
-      <c r="C7" s="2">
-        <f t="shared" si="1"/>
-        <v>74</v>
-      </c>
-      <c r="D7" s="2">
-        <f t="shared" si="1"/>
-        <v>56</v>
-      </c>
-      <c r="E7" s="2">
-        <f t="shared" si="1"/>
-        <v>23</v>
-      </c>
-      <c r="F7" s="2">
-        <f t="shared" si="1"/>
-        <v>13</v>
-      </c>
-      <c r="G7" s="2">
-        <f t="shared" si="1"/>
-        <v>15</v>
-      </c>
-      <c r="H7" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="K7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="L7" s="2">
-        <f t="shared" si="1"/>
+    <row r="8">
+      <c r="A8" s="2">
+        <f>COUNTA(output!C9:EQ9)</f>
         <v>3</v>
-      </c>
-      <c r="M7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="N7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="P7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="S7" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="T7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="V7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="W7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="X7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="Y7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Z7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AA7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AB7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AC7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AD7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AE7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AF7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AG7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AH7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AI7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AJ7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AK7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AL7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AN7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AO7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AP7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="AR7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AS7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AT7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AU7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AV7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="AW7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AY7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="AZ7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BA7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="BB7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BC7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BD7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BE7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BF7" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="BG7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BH7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BI7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BJ7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="BK7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BL7" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="BM7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BN7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BO7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="BP7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BQ7" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BR7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BS7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BT7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="BU7" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BV7" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="BW7" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="BX7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="BY7" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="BZ7" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="CA7" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="CB7" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="CC7" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="CD7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="CE7" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="CF7" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="CG7" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="CH7" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="CI7" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="CJ7" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="CK7" s="2">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="CL7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="CM7" s="2">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="CN7" s="2">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="CO7" s="2">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="CP7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="CQ7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="CR7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="CS7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="CT7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="CU7" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="CV7" s="2">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="CW7" s="2">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="CX7" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="CY7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="CZ7" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="DA7" s="2">
-        <f t="shared" si="1"/>
-        <v>3</v>
-      </c>
-      <c r="DB7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DC7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DD7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DE7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DF7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DG7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DH7" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="DI7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DJ7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DK7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DL7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DM7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DN7" s="2">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="DO7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DP7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DQ7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DR7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DS7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="DT7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DU7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DV7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DW7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DX7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DY7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="DZ7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EA7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EB7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EC7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="ED7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EE7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EF7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EG7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EH7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EI7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EJ7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EK7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EL7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EM7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EN7" s="2">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="EO7" s="2">
-        <f t="shared" si="1"/>
-        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2">
-        <f>COUNTA(output!C2:EQ2)</f>
-        <v>3</v>
+        <f>COUNTA(output!C10:EQ10)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2">
-        <f>COUNTA(output!C3:EQ3)</f>
-        <v>101</v>
+        <f>COUNTA(output!C11:EQ11)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2">
-        <f>COUNTA(output!C4:EQ4)</f>
-        <v>80</v>
+        <f>COUNTA(output!C12:EQ12)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2">
-        <f>COUNTA(output!C5:EQ5)</f>
-        <v>84</v>
+        <f>COUNTA(output!C13:EQ13)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2">
-        <f>COUNTA(output!C6:EQ6)</f>
-        <v>3</v>
+        <f>COUNTA(output!C14:EQ14)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2">
-        <f>COUNTA(output!C7:EQ7)</f>
-        <v>3</v>
+        <f>COUNTA(output!C15:EQ15)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2">
-        <f>COUNTA(output!C8:EQ8)</f>
-        <v>74</v>
+        <f>COUNTA(output!C16:EQ16)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2">
-        <f>COUNTA(output!C9:EQ9)</f>
-        <v>3</v>
+        <f>COUNTA(output!C17:EQ17)</f>
+        <v>24</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2">
-        <f>COUNTA(output!C10:EQ10)</f>
-        <v>112</v>
+        <f>COUNTA(output!C18:EQ18)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2">
-        <f>COUNTA(output!C11:EQ11)</f>
-        <v>18</v>
+        <f>COUNTA(output!C19:EQ19)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2">
-        <f>COUNTA(output!C12:EQ12)</f>
-        <v>2</v>
+        <f>COUNTA(output!C20:EQ20)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2">
-        <f>COUNTA(output!C13:EQ13)</f>
-        <v>70</v>
+        <f>COUNTA(output!C21:EQ21)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2">
-        <f>COUNTA(output!C14:EQ14)</f>
-        <v>88</v>
+        <f>COUNTA(output!C22:EQ22)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2">
-        <f>COUNTA(output!C15:EQ15)</f>
-        <v>6</v>
+        <f>COUNTA(output!C23:EQ23)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2">
-        <f>COUNTA(output!C16:EQ16)</f>
-        <v>6</v>
+        <f>COUNTA(output!C24:EQ24)</f>
+        <v>84</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2">
-        <f>COUNTA(output!C17:EQ17)</f>
-        <v>24</v>
+        <f>COUNTA(output!C25:EQ25)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2">
-        <f>COUNTA(output!C18:EQ18)</f>
-        <v>2</v>
+        <f>COUNTA(output!C26:EQ26)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2">
-        <f>COUNTA(output!C19:EQ19)</f>
-        <v>2</v>
+        <f>COUNTA(output!C27:EQ27)</f>
+        <v>56</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2">
-        <f>COUNTA(output!C20:EQ20)</f>
-        <v>77</v>
+        <f>COUNTA(output!C28:EQ28)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2">
-        <f>COUNTA(output!C21:EQ21)</f>
-        <v>64</v>
+        <f>COUNTA(output!C29:EQ29)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2">
-        <f>COUNTA(output!C22:EQ22)</f>
-        <v>96</v>
+        <f>COUNTA(output!C30:EQ30)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2">
-        <f>COUNTA(output!C23:EQ23)</f>
-        <v>77</v>
+        <f>COUNTA(output!C31:EQ31)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2">
-        <f>COUNTA(output!C24:EQ24)</f>
-        <v>84</v>
+        <f>COUNTA(output!C32:EQ32)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2">
-        <f>COUNTA(output!C25:EQ25)</f>
-        <v>19</v>
+        <f>COUNTA(output!C33:EQ33)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2">
-        <f>COUNTA(output!C26:EQ26)</f>
-        <v>3</v>
+        <f>COUNTA(output!C34:EQ34)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2">
-        <f>COUNTA(output!C27:EQ27)</f>
-        <v>56</v>
+        <f>COUNTA(output!C35:EQ35)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2">
-        <f>COUNTA(output!C28:EQ28)</f>
-        <v>2</v>
+        <f>COUNTA(output!C36:EQ36)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2">
-        <f>COUNTA(output!C29:EQ29)</f>
-        <v>100</v>
+        <f>COUNTA(output!C37:EQ37)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2">
-        <f>COUNTA(output!C30:EQ30)</f>
-        <v>70</v>
+        <f>COUNTA(output!C38:EQ38)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2">
-        <f>COUNTA(output!C31:EQ31)</f>
-        <v>2</v>
+        <f>COUNTA(output!C39:EQ39)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2">
-        <f>COUNTA(output!C32:EQ32)</f>
-        <v>96</v>
+        <f>COUNTA(output!C40:EQ40)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2">
-        <f>COUNTA(output!C33:EQ33)</f>
-        <v>71</v>
+        <f>COUNTA(output!C41:EQ41)</f>
+        <v>123</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2">
-        <f>COUNTA(output!C34:EQ34)</f>
-        <v>7</v>
+        <f>COUNTA(output!C42:EQ42)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2">
-        <f>COUNTA(output!C35:EQ35)</f>
+        <f>COUNTA(output!C43:EQ43)</f>
         <v>3</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2">
-        <f>COUNTA(output!C36:EQ36)</f>
-        <v>100</v>
+        <f>COUNTA(output!C44:EQ44)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2">
-        <f>COUNTA(output!C37:EQ37)</f>
-        <v>5</v>
+        <f>COUNTA(output!C45:EQ45)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2">
-        <f>COUNTA(output!C38:EQ38)</f>
-        <v>92</v>
+        <f>COUNTA(output!C46:EQ46)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2">
-        <f>COUNTA(output!C39:EQ39)</f>
-        <v>4</v>
+        <f>COUNTA(output!C47:EQ47)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2">
-        <f>COUNTA(output!C40:EQ40)</f>
-        <v>95</v>
+        <f>COUNTA(output!C48:EQ48)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2">
-        <f>COUNTA(output!C41:EQ41)</f>
-        <v>123</v>
+        <f>COUNTA(output!C49:EQ49)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2">
-        <f>COUNTA(output!C42:EQ42)</f>
-        <v>73</v>
+        <f>COUNTA(output!C50:EQ50)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2">
-        <f>COUNTA(output!C43:EQ43)</f>
-        <v>3</v>
+        <f>COUNTA(output!C51:EQ51)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2">
-        <f>COUNTA(output!C44:EQ44)</f>
-        <v>3</v>
+        <f>COUNTA(output!C52:EQ52)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2">
-        <f>COUNTA(output!C45:EQ45)</f>
+        <f>COUNTA(output!C53:EQ53)</f>
         <v>4</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2">
-        <f>COUNTA(output!C46:EQ46)</f>
-        <v>4</v>
+        <f>COUNTA(output!C54:EQ54)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2">
-        <f>COUNTA(output!C47:EQ47)</f>
-        <v>3</v>
+        <f>COUNTA(output!C55:EQ55)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2">
-        <f>COUNTA(output!C48:EQ48)</f>
+        <f>COUNTA(output!C56:EQ56)</f>
         <v>3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2">
-        <f>COUNTA(output!C49:EQ49)</f>
-        <v>6</v>
+        <f>COUNTA(output!C57:EQ57)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2">
-        <f>COUNTA(output!C50:EQ50)</f>
-        <v>102</v>
+        <f>COUNTA(output!C58:EQ58)</f>
+        <v>54</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2">
-        <f>COUNTA(output!C51:EQ51)</f>
-        <v>7</v>
+        <f>COUNTA(output!C59:EQ59)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2">
-        <f>COUNTA(output!C52:EQ52)</f>
-        <v>4</v>
+        <f>COUNTA(output!C60:EQ60)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2">
-        <f>COUNTA(output!C53:EQ53)</f>
-        <v>4</v>
+        <f>COUNTA(output!C61:EQ61)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2">
-        <f>COUNTA(output!C54:EQ54)</f>
-        <v>74</v>
+        <f>COUNTA(output!C62:EQ62)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2">
-        <f>COUNTA(output!C55:EQ55)</f>
-        <v>91</v>
+        <f>COUNTA(output!C63:EQ63)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2">
-        <f>COUNTA(output!C56:EQ56)</f>
-        <v>3</v>
+        <f>COUNTA(output!C64:EQ64)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2">
-        <f>COUNTA(output!C57:EQ57)</f>
-        <v>2</v>
+        <f>COUNTA(output!C65:EQ65)</f>
+        <v>104</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2">
-        <f>COUNTA(output!C58:EQ58)</f>
-        <v>54</v>
+        <f>COUNTA(output!C66:EQ66)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2">
-        <f>COUNTA(output!C59:EQ59)</f>
-        <v>8</v>
+        <f>COUNTA(output!C67:EQ67)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2">
-        <f>COUNTA(output!C60:EQ60)</f>
-        <v>10</v>
+        <f>COUNTA(output!C68:EQ68)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2">
-        <f>COUNTA(output!C61:EQ61)</f>
-        <v>5</v>
+        <f>COUNTA(output!C69:EQ69)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2">
-        <f>COUNTA(output!C62:EQ62)</f>
-        <v>5</v>
+        <f>COUNTA(output!C70:EQ70)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2">
-        <f>COUNTA(output!C63:EQ63)</f>
-        <v>6</v>
+        <f>COUNTA(output!C71:EQ71)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2">
-        <f>COUNTA(output!C64:EQ64)</f>
-        <v>75</v>
+        <f>COUNTA(output!C72:EQ72)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2">
-        <f>COUNTA(output!C65:EQ65)</f>
-        <v>104</v>
+        <f>COUNTA(output!C73:EQ73)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2">
-        <f>COUNTA(output!C66:EQ66)</f>
-        <v>11</v>
+        <f>COUNTA(output!C74:EQ74)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2">
-        <f>COUNTA(output!C67:EQ67)</f>
-        <v>45</v>
+        <f>COUNTA(output!C75:EQ75)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2">
-        <f>COUNTA(output!C68:EQ68)</f>
-        <v>7</v>
+        <f>COUNTA(output!C76:EQ76)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2">
-        <f>COUNTA(output!C69:EQ69)</f>
-        <v>7</v>
+        <f>COUNTA(output!C77:EQ77)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2">
-        <f>COUNTA(output!C70:EQ70)</f>
-        <v>86</v>
+        <f>COUNTA(output!C78:EQ78)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2">
-        <f>COUNTA(output!C71:EQ71)</f>
-        <v>86</v>
+        <f>COUNTA(output!C79:EQ79)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2">
-        <f>COUNTA(output!C72:EQ72)</f>
-        <v>4</v>
+        <f>COUNTA(output!C80:EQ80)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2">
-        <f>COUNTA(output!C73:EQ73)</f>
-        <v>3</v>
+        <f>COUNTA(output!C81:EQ81)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2">
-        <f>COUNTA(output!C74:EQ74)</f>
-        <v>3</v>
+        <f>COUNTA(output!C82:EQ82)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2">
-        <f>COUNTA(output!C75:EQ75)</f>
-        <v>55</v>
+        <f>COUNTA(output!C83:EQ83)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2">
-        <f>COUNTA(output!C76:EQ76)</f>
-        <v>77</v>
+        <f>COUNTA(output!C84:EQ84)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2">
-        <f>COUNTA(output!C77:EQ77)</f>
+        <f>COUNTA(output!C85:EQ85)</f>
         <v>72</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2">
-        <f>COUNTA(output!C78:EQ78)</f>
-        <v>78</v>
+        <f>COUNTA(output!C86:EQ86)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2">
-        <f>COUNTA(output!C79:EQ79)</f>
-        <v>78</v>
+        <f>COUNTA(output!C87:EQ87)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2">
-        <f>COUNTA(output!C80:EQ80)</f>
-        <v>3</v>
+        <f>COUNTA(output!C88:EQ88)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2">
-        <f>COUNTA(output!C81:EQ81)</f>
-        <v>91</v>
+        <f>COUNTA(output!C89:EQ89)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2">
-        <f>COUNTA(output!C82:EQ82)</f>
-        <v>81</v>
+        <f>COUNTA(output!C90:EQ90)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2">
-        <f>COUNTA(output!C83:EQ83)</f>
-        <v>2</v>
+        <f>COUNTA(output!C91:EQ91)</f>
+        <v>107</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2">
-        <f>COUNTA(output!C84:EQ84)</f>
-        <v>3</v>
+        <f>COUNTA(output!C92:EQ92)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2">
-        <f>COUNTA(output!C85:EQ85)</f>
-        <v>72</v>
+        <f>COUNTA(output!C93:EQ93)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2">
-        <f>COUNTA(output!C86:EQ86)</f>
-        <v>8</v>
+        <f>COUNTA(output!C94:EQ94)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2">
-        <f>COUNTA(output!C87:EQ87)</f>
-        <v>4</v>
+        <f>COUNTA(output!C95:EQ95)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2">
-        <f>COUNTA(output!C88:EQ88)</f>
-        <v>48</v>
+        <f>COUNTA(output!C96:EQ96)</f>
+        <v>62</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2">
-        <f>COUNTA(output!C89:EQ89)</f>
-        <v>83</v>
+        <f>COUNTA(output!C97:EQ97)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2">
-        <f>COUNTA(output!C90:EQ90)</f>
-        <v>89</v>
+        <f>COUNTA(output!C98:EQ98)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2">
-        <f>COUNTA(output!C91:EQ91)</f>
-        <v>107</v>
+        <f>COUNTA(output!C99:EQ99)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2">
-        <f>COUNTA(output!C92:EQ92)</f>
-        <v>4</v>
+        <f>COUNTA(output!C100:EQ100)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2">
-        <f>COUNTA(output!C93:EQ93)</f>
-        <v>93</v>
+        <f>COUNTA(output!C101:EQ101)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2">
-        <f>COUNTA(output!C94:EQ94)</f>
-        <v>2</v>
+        <f>COUNTA(output!C102:EQ102)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2">
-        <f>COUNTA(output!C95:EQ95)</f>
-        <v>2</v>
+        <f>COUNTA(output!C103:EQ103)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2">
-        <f>COUNTA(output!C96:EQ96)</f>
-        <v>62</v>
+        <f>COUNTA(output!C104:EQ104)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2">
-        <f>COUNTA(output!C97:EQ97)</f>
-        <v>102</v>
+        <f>COUNTA(output!C105:EQ105)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2">
-        <f>COUNTA(output!C98:EQ98)</f>
-        <v>83</v>
+        <f>COUNTA(output!C106:EQ106)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" s="2">
-        <f>COUNTA(output!C99:EQ99)</f>
-        <v>2</v>
+        <f>COUNTA(output!C107:EQ107)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" s="2">
-        <f>COUNTA(output!C100:EQ100)</f>
-        <v>5</v>
+        <f>COUNTA(output!C108:EQ108)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="2">
-        <f>COUNTA(output!C101:EQ101)</f>
-        <v>96</v>
+        <f>COUNTA(output!C109:EQ109)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="2">
-        <f>COUNTA(output!C102:EQ102)</f>
-        <v>73</v>
+        <f>COUNTA(output!C110:EQ110)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="2">
-        <f>COUNTA(output!C103:EQ103)</f>
-        <v>85</v>
+        <f>COUNTA(output!C111:EQ111)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="2">
-        <f>COUNTA(output!C104:EQ104)</f>
-        <v>97</v>
+        <f>COUNTA(output!C112:EQ112)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="2">
-        <f>COUNTA(output!C105:EQ105)</f>
-        <v>86</v>
+        <f>COUNTA(output!C113:EQ113)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="2">
-        <f>COUNTA(output!C106:EQ106)</f>
-        <v>4</v>
+        <f>COUNTA(output!C114:EQ114)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="2">
-        <f>COUNTA(output!C107:EQ107)</f>
-        <v>4</v>
+        <f>COUNTA(output!C115:EQ115)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="2">
-        <f>COUNTA(output!C108:EQ108)</f>
-        <v>71</v>
+        <f>COUNTA(output!C116:EQ116)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="2">
-        <f>COUNTA(output!C109:EQ109)</f>
-        <v>3</v>
+        <f>COUNTA(output!C117:EQ117)</f>
+        <v>113</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="2">
-        <f>COUNTA(output!C110:EQ110)</f>
-        <v>76</v>
+        <f>COUNTA(output!C118:EQ118)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="2">
-        <f>COUNTA(output!C111:EQ111)</f>
-        <v>76</v>
+        <f>COUNTA(output!C119:EQ119)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="2">
-        <f>COUNTA(output!C112:EQ112)</f>
-        <v>61</v>
+        <f>COUNTA(output!C120:EQ120)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="2">
-        <f>COUNTA(output!C113:EQ113)</f>
-        <v>4</v>
+        <f>COUNTA(output!C121:EQ121)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="2">
-        <f>COUNTA(output!C114:EQ114)</f>
-        <v>85</v>
+        <f>COUNTA(output!C122:EQ122)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="2">
-        <f>COUNTA(output!C115:EQ115)</f>
-        <v>3</v>
+        <f>COUNTA(output!C123:EQ123)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="2">
-        <f>COUNTA(output!C116:EQ116)</f>
-        <v>4</v>
+        <f>COUNTA(output!C124:EQ124)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="2">
-        <f>COUNTA(output!C117:EQ117)</f>
-        <v>113</v>
+        <f>COUNTA(output!C125:EQ125)</f>
+        <v>34</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="2">
-        <f>COUNTA(output!C118:EQ118)</f>
-        <v>8</v>
+        <f>COUNTA(output!C126:EQ126)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="2">
-        <f>COUNTA(output!C119:EQ119)</f>
-        <v>85</v>
+        <f>COUNTA(output!C127:EQ127)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="2">
-        <f>COUNTA(output!C120:EQ120)</f>
+        <f>COUNTA(output!C128:EQ128)</f>
         <v>85</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="2">
-        <f>COUNTA(output!C121:EQ121)</f>
-        <v>76</v>
+        <f>COUNTA(output!C129:EQ129)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="2">
-        <f>COUNTA(output!C122:EQ122)</f>
-        <v>3</v>
+        <f>COUNTA(output!C130:EQ130)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="2">
-        <f>COUNTA(output!C123:EQ123)</f>
-        <v>5</v>
+        <f>COUNTA(output!C131:EQ131)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="2">
-        <f>COUNTA(output!C124:EQ124)</f>
-        <v>2</v>
+        <f>COUNTA(output!C132:EQ132)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="2">
-        <f>COUNTA(output!C125:EQ125)</f>
-        <v>34</v>
+        <f>COUNTA(output!C133:EQ133)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="2">
-        <f>COUNTA(output!C126:EQ126)</f>
-        <v>90</v>
+        <f>COUNTA(output!C134:EQ134)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="2">
-        <f>COUNTA(output!C127:EQ127)</f>
-        <v>3</v>
+        <f>COUNTA(output!C135:EQ135)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="2">
-        <f>COUNTA(output!C128:EQ128)</f>
-        <v>85</v>
+        <f>COUNTA(output!C136:EQ136)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="2">
-        <f>COUNTA(output!C129:EQ129)</f>
+        <f>COUNTA(output!C137:EQ137)</f>
         <v>4</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="2">
-        <f>COUNTA(output!C130:EQ130)</f>
-        <v>92</v>
+        <f>COUNTA(output!C138:EQ138)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="2">
-        <f>COUNTA(output!C131:EQ131)</f>
+        <f>COUNTA(output!C139:EQ139)</f>
         <v>80</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="2">
-        <f>COUNTA(output!C132:EQ132)</f>
-        <v>66</v>
+        <f>COUNTA(output!C140:EQ140)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="2">
-        <f>COUNTA(output!C133:EQ133)</f>
-        <v>4</v>
+        <f>COUNTA(output!C141:EQ141)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="2">
-        <f>COUNTA(output!C134:EQ134)</f>
+        <f>COUNTA(output!C142:EQ142)</f>
         <v>3</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="2">
-        <f>COUNTA(output!C135:EQ135)</f>
-        <v>74</v>
+        <f>COUNTA(output!C143:EQ143)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="2">
-        <f>COUNTA(output!C136:EQ136)</f>
-        <v>5</v>
+        <f>COUNTA(output!C144:EQ144)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="2">
-        <f>COUNTA(output!C137:EQ137)</f>
-        <v>4</v>
+        <f>COUNTA(output!C145:EQ145)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="2">
-        <f>COUNTA(output!C138:EQ138)</f>
-        <v>5</v>
+        <f>COUNTA(output!C146:EQ146)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="2">
-        <f>COUNTA(output!C139:EQ139)</f>
-        <v>80</v>
+        <f>COUNTA(output!C147:EQ147)</f>
+        <v>90</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="2">
-        <f>COUNTA(output!C140:EQ140)</f>
-        <v>93</v>
+        <f>COUNTA(output!C148:EQ148)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="2">
-        <f>COUNTA(output!C141:EQ141)</f>
-        <v>78</v>
+        <f>COUNTA(output!C149:EQ149)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="2">
-        <f>COUNTA(output!C142:EQ142)</f>
-        <v>3</v>
+        <f>COUNTA(output!C150:EQ150)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="2">
-        <f>COUNTA(output!C143:EQ143)</f>
-        <v>5</v>
+        <f>COUNTA(output!C151:EQ151)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2">
-        <f>COUNTA(output!C144:EQ144)</f>
-        <v>85</v>
+        <f>COUNTA(output!C152:EQ152)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="2">
-        <f>COUNTA(output!C145:EQ145)</f>
-        <v>100</v>
+        <f>COUNTA(output!C153:EQ153)</f>
+        <v>106</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="2">
-        <f>COUNTA(output!C146:EQ146)</f>
-        <v>73</v>
+        <f>COUNTA(output!C154:EQ154)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="2">
-        <f>COUNTA(output!C147:EQ147)</f>
-        <v>90</v>
+        <f>COUNTA(output!C155:EQ155)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="2">
-        <f>COUNTA(output!C148:EQ148)</f>
-        <v>57</v>
+        <f>COUNTA(output!C156:EQ156)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="2">
-        <f>COUNTA(output!C149:EQ149)</f>
-        <v>92</v>
+        <f>COUNTA(output!C157:EQ157)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="2">
-        <f>COUNTA(output!C150:EQ150)</f>
-        <v>58</v>
+        <f>COUNTA(output!C158:EQ158)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="2">
-        <f>COUNTA(output!C151:EQ151)</f>
-        <v>2</v>
+        <f>COUNTA(output!C159:EQ159)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="2">
-        <f>COUNTA(output!C152:EQ152)</f>
-        <v>3</v>
+        <f>COUNTA(output!C160:EQ160)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="2">
-        <f>COUNTA(output!C153:EQ153)</f>
-        <v>106</v>
+        <f>COUNTA(output!C161:EQ161)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="2">
-        <f>COUNTA(output!C154:EQ154)</f>
-        <v>65</v>
+        <f>COUNTA(output!C162:EQ162)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="2">
-        <f>COUNTA(output!C155:EQ155)</f>
-        <v>102</v>
+        <f>COUNTA(output!C163:EQ163)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="2">
-        <f>COUNTA(output!C156:EQ156)</f>
-        <v>77</v>
+        <f>COUNTA(output!C164:EQ164)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="2">
-        <f>COUNTA(output!C157:EQ157)</f>
-        <v>3</v>
+        <f>COUNTA(output!C165:EQ165)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="2">
-        <f>COUNTA(output!C158:EQ158)</f>
+        <f>COUNTA(output!C166:EQ166)</f>
         <v>2</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="2">
-        <f>COUNTA(output!C159:EQ159)</f>
-        <v>13</v>
+        <f>COUNTA(output!C167:EQ167)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="2">
-        <f>COUNTA(output!C160:EQ160)</f>
+        <f>COUNTA(output!C168:EQ168)</f>
         <v>2</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="2">
-        <f>COUNTA(output!C161:EQ161)</f>
-        <v>86</v>
+        <f>COUNTA(output!C169:EQ169)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="2">
-        <f>COUNTA(output!C162:EQ162)</f>
-        <v>7</v>
+        <f>COUNTA(output!C170:EQ170)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="2">
-        <f>COUNTA(output!C163:EQ163)</f>
-        <v>6</v>
+        <f>COUNTA(output!C171:EQ171)</f>
+        <v>102</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="2">
-        <f>COUNTA(output!C164:EQ164)</f>
-        <v>2</v>
+        <f>COUNTA(output!C172:EQ172)</f>
+        <v>30</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="2">
-        <f>COUNTA(output!C165:EQ165)</f>
-        <v>88</v>
+        <f>COUNTA(output!C173:EQ173)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="2">
-        <f>COUNTA(output!C166:EQ166)</f>
+        <f>COUNTA(output!C174:EQ174)</f>
         <v>2</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="2">
-        <f>COUNTA(output!C167:EQ167)</f>
-        <v>2</v>
+        <f>COUNTA(output!C175:EQ175)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="2">
-        <f>COUNTA(output!C168:EQ168)</f>
-        <v>2</v>
+        <f>COUNTA(output!C176:EQ176)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="2">
-        <f>COUNTA(output!C169:EQ169)</f>
-        <v>2</v>
+        <f>COUNTA(output!C177:EQ177)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="2">
-        <f>COUNTA(output!C170:EQ170)</f>
-        <v>2</v>
+        <f>COUNTA(output!C178:EQ178)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="2">
-        <f>COUNTA(output!C171:EQ171)</f>
-        <v>102</v>
+        <f>COUNTA(output!C179:EQ179)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="2">
-        <f>COUNTA(output!C172:EQ172)</f>
-        <v>30</v>
+        <f>COUNTA(output!C180:EQ180)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="2">
-        <f>COUNTA(output!C173:EQ173)</f>
-        <v>70</v>
+        <f>COUNTA(output!C181:EQ181)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="2">
-        <f>COUNTA(output!C174:EQ174)</f>
-        <v>2</v>
+        <f>COUNTA(output!C182:EQ182)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="2">
-        <f>COUNTA(output!C175:EQ175)</f>
-        <v>3</v>
+        <f>COUNTA(output!C183:EQ183)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="2">
-        <f>COUNTA(output!C176:EQ176)</f>
-        <v>75</v>
+        <f>COUNTA(output!C184:EQ184)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="2">
-        <f>COUNTA(output!C177:EQ177)</f>
-        <v>89</v>
+        <f>COUNTA(output!C185:EQ185)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="2">
-        <f>COUNTA(output!C178:EQ178)</f>
-        <v>11</v>
+        <f>COUNTA(output!C186:EQ186)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="2">
-        <f>COUNTA(output!C179:EQ179)</f>
-        <v>112</v>
+        <f>COUNTA(output!C187:EQ187)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="2">
-        <f>COUNTA(output!C180:EQ180)</f>
-        <v>94</v>
+        <f>COUNTA(output!C188:EQ188)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="2">
-        <f>COUNTA(output!C181:EQ181)</f>
-        <v>78</v>
+        <f>COUNTA(output!C189:EQ189)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="2">
-        <f>COUNTA(output!C182:EQ182)</f>
-        <v>94</v>
+        <f>COUNTA(output!C190:EQ190)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="2">
-        <f>COUNTA(output!C183:EQ183)</f>
-        <v>99</v>
+        <f>COUNTA(output!C191:EQ191)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="2">
-        <f>COUNTA(output!C184:EQ184)</f>
-        <v>83</v>
+        <f>COUNTA(output!C192:EQ192)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="2">
-        <f>COUNTA(output!C185:EQ185)</f>
-        <v>71</v>
+        <f>COUNTA(output!C193:EQ193)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="2">
-        <f>COUNTA(output!C186:EQ186)</f>
-        <v>4</v>
+        <f>COUNTA(output!C194:EQ194)</f>
+        <v>39</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="2">
-        <f>COUNTA(output!C187:EQ187)</f>
-        <v>2</v>
+        <f>COUNTA(output!C195:EQ195)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2">
-        <f>COUNTA(output!C188:EQ188)</f>
-        <v>5</v>
+        <f>COUNTA(output!C196:EQ196)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2">
-        <f>COUNTA(output!C189:EQ189)</f>
-        <v>2</v>
+        <f>COUNTA(output!C197:EQ197)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2">
-        <f>COUNTA(output!C190:EQ190)</f>
-        <v>91</v>
+        <f>COUNTA(output!C198:EQ198)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2">
-        <f>COUNTA(output!C191:EQ191)</f>
-        <v>95</v>
+        <f>COUNTA(output!C199:EQ199)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2">
-        <f>COUNTA(output!C192:EQ192)</f>
-        <v>7</v>
+        <f>COUNTA(output!C200:EQ200)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2">
-        <f>COUNTA(output!C193:EQ193)</f>
-        <v>10</v>
+        <f>COUNTA(output!C201:EQ201)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2">
-        <f>COUNTA(output!C194:EQ194)</f>
-        <v>39</v>
+        <f>COUNTA(output!C202:EQ202)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2">
-        <f>COUNTA(output!C195:EQ195)</f>
-        <v>4</v>
+        <f>COUNTA(output!C203:EQ203)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2">
-        <f>COUNTA(output!C196:EQ196)</f>
-        <v>76</v>
+        <f>COUNTA(output!C204:EQ204)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2">
-        <f>COUNTA(output!C197:EQ197)</f>
-        <v>69</v>
+        <f>COUNTA(output!C205:EQ205)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2">
-        <f>COUNTA(output!C198:EQ198)</f>
-        <v>3</v>
+        <f>COUNTA(output!C206:EQ206)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2">
-        <f>COUNTA(output!C199:EQ199)</f>
-        <v>81</v>
+        <f>COUNTA(output!C207:EQ207)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2">
-        <f>COUNTA(output!C200:EQ200)</f>
-        <v>5</v>
+        <f>COUNTA(output!C208:EQ208)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2">
-        <f>COUNTA(output!C201:EQ201)</f>
-        <v>6</v>
+        <f>COUNTA(output!C209:EQ209)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2">
-        <f>COUNTA(output!C202:EQ202)</f>
-        <v>2</v>
+        <f>COUNTA(output!C210:EQ210)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2">
-        <f>COUNTA(output!C203:EQ203)</f>
-        <v>2</v>
+        <f>COUNTA(output!C211:EQ211)</f>
+        <v>114</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2">
-        <f>COUNTA(output!C204:EQ204)</f>
+        <f>COUNTA(output!C212:EQ212)</f>
         <v>2</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2">
-        <f>COUNTA(output!C205:EQ205)</f>
-        <v>2</v>
+        <f>COUNTA(output!C213:EQ213)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2">
-        <f>COUNTA(output!C206:EQ206)</f>
-        <v>82</v>
+        <f>COUNTA(output!C214:EQ214)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2">
-        <f>COUNTA(output!C207:EQ207)</f>
-        <v>2</v>
+        <f>COUNTA(output!C215:EQ215)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2">
-        <f>COUNTA(output!C208:EQ208)</f>
-        <v>101</v>
+        <f>COUNTA(output!C216:EQ216)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2">
-        <f>COUNTA(output!C209:EQ209)</f>
-        <v>60</v>
+        <f>COUNTA(output!C217:EQ217)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2">
-        <f>COUNTA(output!C210:EQ210)</f>
-        <v>4</v>
+        <f>COUNTA(output!C218:EQ218)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2">
-        <f>COUNTA(output!C211:EQ211)</f>
-        <v>114</v>
+        <f>COUNTA(output!C219:EQ219)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2">
-        <f>COUNTA(output!C212:EQ212)</f>
-        <v>2</v>
+        <f>COUNTA(output!C220:EQ220)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2">
-        <f>COUNTA(output!C213:EQ213)</f>
-        <v>77</v>
+        <f>COUNTA(output!C221:EQ221)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2">
-        <f>COUNTA(output!C214:EQ214)</f>
-        <v>2</v>
+        <f>COUNTA(output!C222:EQ222)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2">
-        <f>COUNTA(output!C215:EQ215)</f>
-        <v>3</v>
+        <f>COUNTA(output!C223:EQ223)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2">
-        <f>COUNTA(output!C216:EQ216)</f>
-        <v>81</v>
+        <f>COUNTA(output!C224:EQ224)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2">
-        <f>COUNTA(output!C217:EQ217)</f>
-        <v>91</v>
+        <f>COUNTA(output!C225:EQ225)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2">
-        <f>COUNTA(output!C218:EQ218)</f>
-        <v>101</v>
+        <f>COUNTA(output!C226:EQ226)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2">
-        <f>COUNTA(output!C219:EQ219)</f>
-        <v>6</v>
+        <f>COUNTA(output!C227:EQ227)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2">
-        <f>COUNTA(output!C220:EQ220)</f>
-        <v>89</v>
+        <f>COUNTA(output!C228:EQ228)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2">
-        <f>COUNTA(output!C221:EQ221)</f>
-        <v>6</v>
+        <f>COUNTA(output!C229:EQ229)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2">
-        <f>COUNTA(output!C222:EQ222)</f>
-        <v>9</v>
+        <f>COUNTA(output!C230:EQ230)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2">
-        <f>COUNTA(output!C223:EQ223)</f>
-        <v>4</v>
+        <f>COUNTA(output!C231:EQ231)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2">
-        <f>COUNTA(output!C224:EQ224)</f>
-        <v>3</v>
+        <f>COUNTA(output!C232:EQ232)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2">
-        <f>COUNTA(output!C225:EQ225)</f>
-        <v>7</v>
+        <f>COUNTA(output!C233:EQ233)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2">
-        <f>COUNTA(output!C226:EQ226)</f>
-        <v>8</v>
+        <f>COUNTA(output!C234:EQ234)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2">
-        <f>COUNTA(output!C227:EQ227)</f>
-        <v>2</v>
+        <f>COUNTA(output!C235:EQ235)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2">
-        <f>COUNTA(output!C228:EQ228)</f>
-        <v>2</v>
+        <f>COUNTA(output!C236:EQ236)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2">
-        <f>COUNTA(output!C229:EQ229)</f>
-        <v>19</v>
+        <f>COUNTA(output!C237:EQ237)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2">
-        <f>COUNTA(output!C230:EQ230)</f>
-        <v>3</v>
+        <f>COUNTA(output!C238:EQ238)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2">
-        <f>COUNTA(output!C231:EQ231)</f>
-        <v>3</v>
+        <f>COUNTA(output!C239:EQ239)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2">
-        <f>COUNTA(output!C232:EQ232)</f>
-        <v>5</v>
+        <f>COUNTA(output!C240:EQ240)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2">
-        <f>COUNTA(output!C233:EQ233)</f>
-        <v>3</v>
+        <f>COUNTA(output!C241:EQ241)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2">
-        <f>COUNTA(output!C234:EQ234)</f>
-        <v>4</v>
+        <f>COUNTA(output!C242:EQ242)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2">
-        <f>COUNTA(output!C235:EQ235)</f>
-        <v>3</v>
+        <f>COUNTA(output!C243:EQ243)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2">
-        <f>COUNTA(output!C236:EQ236)</f>
-        <v>86</v>
+        <f>COUNTA(output!C244:EQ244)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2">
-        <f>COUNTA(output!C237:EQ237)</f>
-        <v>112</v>
+        <f>COUNTA(output!C245:EQ245)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2">
-        <f>COUNTA(output!C238:EQ238)</f>
-        <v>69</v>
+        <f>COUNTA(output!C246:EQ246)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2">
-        <f>COUNTA(output!C239:EQ239)</f>
-        <v>89</v>
+        <f>COUNTA(output!C247:EQ247)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2">
-        <f>COUNTA(output!C240:EQ240)</f>
+        <f>COUNTA(output!C248:EQ248)</f>
         <v>2</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2">
-        <f>COUNTA(output!C241:EQ241)</f>
-        <v>67</v>
+        <f>COUNTA(output!C249:EQ249)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2">
-        <f>COUNTA(output!C242:EQ242)</f>
-        <v>2</v>
+        <f>COUNTA(output!C250:EQ250)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2">
-        <f>COUNTA(output!C243:EQ243)</f>
-        <v>88</v>
+        <f>COUNTA(output!C251:EQ251)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2">
-        <f>COUNTA(output!C244:EQ244)</f>
-        <v>83</v>
+        <f>COUNTA(output!C252:EQ252)</f>
+        <v>61</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2">
-        <f>COUNTA(output!C245:EQ245)</f>
-        <v>2</v>
+        <f>COUNTA(output!C253:EQ253)</f>
+        <v>55</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2">
-        <f>COUNTA(output!C246:EQ246)</f>
-        <v>86</v>
+        <f>COUNTA(output!C254:EQ254)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2">
-        <f>COUNTA(output!C247:EQ247)</f>
-        <v>83</v>
+        <f>COUNTA(output!C255:EQ255)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2">
-        <f>COUNTA(output!C248:EQ248)</f>
-        <v>2</v>
+        <f>COUNTA(output!C256:EQ256)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2">
-        <f>COUNTA(output!C249:EQ249)</f>
-        <v>73</v>
+        <f>COUNTA(output!C257:EQ257)</f>
+        <v>37</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2">
-        <f>COUNTA(output!C250:EQ250)</f>
-        <v>88</v>
+        <f>COUNTA(output!C258:EQ258)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2">
-        <f>COUNTA(output!C251:EQ251)</f>
-        <v>101</v>
+        <f>COUNTA(output!C259:EQ259)</f>
+        <v>110</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2">
-        <f>COUNTA(output!C252:EQ252)</f>
-        <v>61</v>
+        <f>COUNTA(output!C260:EQ260)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2">
-        <f>COUNTA(output!C253:EQ253)</f>
-        <v>55</v>
+        <f>COUNTA(output!C261:EQ261)</f>
+        <v>57</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2">
-        <f>COUNTA(output!C254:EQ254)</f>
-        <v>95</v>
+        <f>COUNTA(output!C262:EQ262)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2">
-        <f>COUNTA(output!C255:EQ255)</f>
-        <v>5</v>
+        <f>COUNTA(output!C263:EQ263)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2">
-        <f>COUNTA(output!C256:EQ256)</f>
-        <v>33</v>
+        <f>COUNTA(output!C264:EQ264)</f>
+        <v>47</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2">
-        <f>COUNTA(output!C257:EQ257)</f>
-        <v>37</v>
+        <f>COUNTA(output!C265:EQ265)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2">
-        <f>COUNTA(output!C258:EQ258)</f>
-        <v>99</v>
+        <f>COUNTA(output!C266:EQ266)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2">
-        <f>COUNTA(output!C259:EQ259)</f>
-        <v>110</v>
+        <f>COUNTA(output!C267:EQ267)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2">
-        <f>COUNTA(output!C260:EQ260)</f>
-        <v>73</v>
+        <f>COUNTA(output!C268:EQ268)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2">
-        <f>COUNTA(output!C261:EQ261)</f>
-        <v>57</v>
+        <f>COUNTA(output!C269:EQ269)</f>
+        <v>121</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2">
-        <f>COUNTA(output!C262:EQ262)</f>
-        <v>10</v>
+        <f>COUNTA(output!C270:EQ270)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2">
-        <f>COUNTA(output!C263:EQ263)</f>
-        <v>69</v>
+        <f>COUNTA(output!C271:EQ271)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2">
-        <f>COUNTA(output!C264:EQ264)</f>
-        <v>47</v>
+        <f>COUNTA(output!C272:EQ272)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2">
-        <f>COUNTA(output!C265:EQ265)</f>
-        <v>2</v>
+        <f>COUNTA(output!C273:EQ273)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2">
-        <f>COUNTA(output!C266:EQ266)</f>
-        <v>97</v>
+        <f>COUNTA(output!C274:EQ274)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2">
-        <f>COUNTA(output!C267:EQ267)</f>
-        <v>2</v>
+        <f>COUNTA(output!C275:EQ275)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2">
-        <f>COUNTA(output!C268:EQ268)</f>
-        <v>7</v>
+        <f>COUNTA(output!C276:EQ276)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2">
-        <f>COUNTA(output!C269:EQ269)</f>
-        <v>121</v>
+        <f>COUNTA(output!C277:EQ277)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2">
-        <f>COUNTA(output!C270:EQ270)</f>
-        <v>2</v>
+        <f>COUNTA(output!C278:EQ278)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2">
-        <f>COUNTA(output!C271:EQ271)</f>
-        <v>93</v>
+        <f>COUNTA(output!C279:EQ279)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2">
-        <f>COUNTA(output!C272:EQ272)</f>
-        <v>83</v>
+        <f>COUNTA(output!C280:EQ280)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2">
-        <f>COUNTA(output!C273:EQ273)</f>
-        <v>4</v>
+        <f>COUNTA(output!C281:EQ281)</f>
+        <v>104</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2">
-        <f>COUNTA(output!C274:EQ274)</f>
-        <v>6</v>
+        <f>COUNTA(output!C282:EQ282)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2">
-        <f>COUNTA(output!C275:EQ275)</f>
-        <v>5</v>
+        <f>COUNTA(output!C283:EQ283)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2">
-        <f>COUNTA(output!C276:EQ276)</f>
-        <v>80</v>
+        <f>COUNTA(output!C284:EQ284)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2">
-        <f>COUNTA(output!C277:EQ277)</f>
-        <v>82</v>
+        <f>COUNTA(output!C285:EQ285)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2">
-        <f>COUNTA(output!C278:EQ278)</f>
-        <v>79</v>
+        <f>COUNTA(output!C286:EQ286)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2">
-        <f>COUNTA(output!C279:EQ279)</f>
-        <v>70</v>
+        <f>COUNTA(output!C287:EQ287)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2">
-        <f>COUNTA(output!C280:EQ280)</f>
-        <v>5</v>
+        <f>COUNTA(output!C288:EQ288)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2">
-        <f>COUNTA(output!C281:EQ281)</f>
+        <f>COUNTA(output!C289:EQ289)</f>
         <v>104</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2">
-        <f>COUNTA(output!C282:EQ282)</f>
-        <v>2</v>
+        <f>COUNTA(output!C290:EQ290)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2">
-        <f>COUNTA(output!C283:EQ283)</f>
-        <v>93</v>
+        <f>COUNTA(output!C291:EQ291)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2">
-        <f>COUNTA(output!C284:EQ284)</f>
-        <v>83</v>
+        <f>COUNTA(output!C292:EQ292)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2">
-        <f>COUNTA(output!C285:EQ285)</f>
-        <v>75</v>
+        <f>COUNTA(output!C293:EQ293)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2">
-        <f>COUNTA(output!C286:EQ286)</f>
-        <v>3</v>
+        <f>COUNTA(output!C294:EQ294)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2">
-        <f>COUNTA(output!C287:EQ287)</f>
-        <v>6</v>
+        <f>COUNTA(output!C295:EQ295)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2">
-        <f>COUNTA(output!C288:EQ288)</f>
-        <v>68</v>
+        <f>COUNTA(output!C296:EQ296)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2">
-        <f>COUNTA(output!C289:EQ289)</f>
-        <v>104</v>
+        <f>COUNTA(output!C297:EQ297)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2">
-        <f>COUNTA(output!C290:EQ290)</f>
-        <v>80</v>
+        <f>COUNTA(output!C298:EQ298)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2">
-        <f>COUNTA(output!C291:EQ291)</f>
-        <v>88</v>
+        <f>COUNTA(output!C299:EQ299)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2">
-        <f>COUNTA(output!C292:EQ292)</f>
-        <v>76</v>
+        <f>COUNTA(output!C300:EQ300)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2">
-        <f>COUNTA(output!C293:EQ293)</f>
-        <v>2</v>
+        <f>COUNTA(output!C301:EQ301)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2">
-        <f>COUNTA(output!C294:EQ294)</f>
-        <v>86</v>
+        <f>COUNTA(output!C302:EQ302)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2">
-        <f>COUNTA(output!C295:EQ295)</f>
-        <v>4</v>
+        <f>COUNTA(output!C303:EQ303)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2">
-        <f>COUNTA(output!C296:EQ296)</f>
-        <v>66</v>
+        <f>COUNTA(output!C304:EQ304)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2">
-        <f>COUNTA(output!C297:EQ297)</f>
-        <v>3</v>
+        <f>COUNTA(output!C305:EQ305)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2">
-        <f>COUNTA(output!C298:EQ298)</f>
-        <v>79</v>
+        <f>COUNTA(output!C306:EQ306)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2">
-        <f>COUNTA(output!C299:EQ299)</f>
-        <v>2</v>
+        <f>COUNTA(output!C307:EQ307)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2">
-        <f>COUNTA(output!C300:EQ300)</f>
-        <v>3</v>
+        <f>COUNTA(output!C308:EQ308)</f>
+        <v>32</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2">
-        <f>COUNTA(output!C301:EQ301)</f>
-        <v>5</v>
+        <f>COUNTA(output!C309:EQ309)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2">
-        <f>COUNTA(output!C302:EQ302)</f>
-        <v>72</v>
+        <f>COUNTA(output!C310:EQ310)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2">
-        <f>COUNTA(output!C303:EQ303)</f>
-        <v>80</v>
+        <f>COUNTA(output!C311:EQ311)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2">
-        <f>COUNTA(output!C304:EQ304)</f>
-        <v>2</v>
+        <f>COUNTA(output!C312:EQ312)</f>
+        <v>19</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2">
-        <f>COUNTA(output!C305:EQ305)</f>
-        <v>4</v>
+        <f>COUNTA(output!C313:EQ313)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2">
-        <f>COUNTA(output!C306:EQ306)</f>
-        <v>2</v>
+        <f>COUNTA(output!C314:EQ314)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2">
-        <f>COUNTA(output!C307:EQ307)</f>
-        <v>3</v>
+        <f>COUNTA(output!C315:EQ315)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2">
-        <f>COUNTA(output!C308:EQ308)</f>
-        <v>32</v>
+        <f>COUNTA(output!C316:EQ316)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2">
-        <f>COUNTA(output!C309:EQ309)</f>
-        <v>7</v>
+        <f>COUNTA(output!C317:EQ317)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2">
-        <f>COUNTA(output!C310:EQ310)</f>
-        <v>83</v>
+        <f>COUNTA(output!C318:EQ318)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2">
-        <f>COUNTA(output!C311:EQ311)</f>
-        <v>66</v>
+        <f>COUNTA(output!C319:EQ319)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2">
-        <f>COUNTA(output!C312:EQ312)</f>
-        <v>19</v>
+        <f>COUNTA(output!C320:EQ320)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2">
-        <f>COUNTA(output!C313:EQ313)</f>
-        <v>82</v>
+        <f>COUNTA(output!C321:EQ321)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2">
-        <f>COUNTA(output!C314:EQ314)</f>
-        <v>93</v>
+        <f>COUNTA(output!C322:EQ322)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2">
-        <f>COUNTA(output!C315:EQ315)</f>
-        <v>81</v>
+        <f>COUNTA(output!C323:EQ323)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2">
-        <f>COUNTA(output!C316:EQ316)</f>
-        <v>3</v>
+        <f>COUNTA(output!C324:EQ324)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2">
-        <f>COUNTA(output!C317:EQ317)</f>
-        <v>79</v>
+        <f>COUNTA(output!C325:EQ325)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2">
-        <f>COUNTA(output!C318:EQ318)</f>
-        <v>91</v>
+        <f>COUNTA(output!C326:EQ326)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2">
-        <f>COUNTA(output!C319:EQ319)</f>
-        <v>75</v>
+        <f>COUNTA(output!C327:EQ327)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2">
-        <f>COUNTA(output!C320:EQ320)</f>
+        <f>COUNTA(output!C328:EQ328)</f>
         <v>4</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2">
-        <f>COUNTA(output!C321:EQ321)</f>
-        <v>3</v>
+        <f>COUNTA(output!C329:EQ329)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2">
-        <f>COUNTA(output!C322:EQ322)</f>
-        <v>3</v>
+        <f>COUNTA(output!C330:EQ330)</f>
+        <v>145</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2">
-        <f>COUNTA(output!C323:EQ323)</f>
-        <v>8</v>
+        <f>COUNTA(output!C331:EQ331)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2">
-        <f>COUNTA(output!C324:EQ324)</f>
-        <v>94</v>
+        <f>COUNTA(output!C332:EQ332)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2">
-        <f>COUNTA(output!C325:EQ325)</f>
-        <v>78</v>
+        <f>COUNTA(output!C333:EQ333)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2">
-        <f>COUNTA(output!C326:EQ326)</f>
-        <v>95</v>
+        <f>COUNTA(output!C334:EQ334)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2">
-        <f>COUNTA(output!C327:EQ327)</f>
-        <v>94</v>
+        <f>COUNTA(output!C335:EQ335)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2">
-        <f>COUNTA(output!C328:EQ328)</f>
-        <v>4</v>
+        <f>COUNTA(output!C336:EQ336)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2">
-        <f>COUNTA(output!C329:EQ329)</f>
-        <v>7</v>
+        <f>COUNTA(output!C337:EQ337)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2">
-        <f>COUNTA(output!C330:EQ330)</f>
-        <v>145</v>
+        <f>COUNTA(output!C338:EQ338)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2">
-        <f>COUNTA(output!C331:EQ331)</f>
-        <v>3</v>
+        <f>COUNTA(output!C339:EQ339)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2">
-        <f>COUNTA(output!C332:EQ332)</f>
-        <v>2</v>
+        <f>COUNTA(output!C340:EQ340)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2">
-        <f>COUNTA(output!C333:EQ333)</f>
-        <v>100</v>
+        <f>COUNTA(output!C341:EQ341)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2">
-        <f>COUNTA(output!C334:EQ334)</f>
-        <v>98</v>
+        <f>COUNTA(output!C342:EQ342)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2">
-        <f>COUNTA(output!C335:EQ335)</f>
-        <v>93</v>
+        <f>COUNTA(output!C343:EQ343)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2">
-        <f>COUNTA(output!C336:EQ336)</f>
-        <v>3</v>
+        <f>COUNTA(output!C344:EQ344)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2">
-        <f>COUNTA(output!C337:EQ337)</f>
-        <v>74</v>
+        <f>COUNTA(output!C345:EQ345)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2">
-        <f>COUNTA(output!C338:EQ338)</f>
-        <v>105</v>
+        <f>COUNTA(output!C346:EQ346)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2">
-        <f>COUNTA(output!C339:EQ339)</f>
+        <f>COUNTA(output!C347:EQ347)</f>
         <v>2</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2">
-        <f>COUNTA(output!C340:EQ340)</f>
-        <v>79</v>
+        <f>COUNTA(output!C348:EQ348)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2">
-        <f>COUNTA(output!C341:EQ341)</f>
-        <v>41</v>
+        <f>COUNTA(output!C349:EQ349)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2">
-        <f>COUNTA(output!C342:EQ342)</f>
-        <v>101</v>
+        <f>COUNTA(output!C350:EQ350)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2">
-        <f>COUNTA(output!C343:EQ343)</f>
-        <v>3</v>
+        <f>COUNTA(output!C351:EQ351)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2">
-        <f>COUNTA(output!C344:EQ344)</f>
-        <v>2</v>
+        <f>COUNTA(output!C352:EQ352)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2">
-        <f>COUNTA(output!C345:EQ345)</f>
-        <v>3</v>
+        <f>COUNTA(output!C353:EQ353)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2">
-        <f>COUNTA(output!C346:EQ346)</f>
+        <f>COUNTA(output!C354:EQ354)</f>
         <v>3</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2">
-        <f>COUNTA(output!C347:EQ347)</f>
-        <v>2</v>
+        <f>COUNTA(output!C355:EQ355)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2">
-        <f>COUNTA(output!C348:EQ348)</f>
+        <f>COUNTA(output!C356:EQ356)</f>
         <v>3</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2">
-        <f>COUNTA(output!C349:EQ349)</f>
+        <f>COUNTA(output!C357:EQ357)</f>
         <v>2</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2">
-        <f>COUNTA(output!C350:EQ350)</f>
-        <v>7</v>
+        <f>COUNTA(output!C358:EQ358)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2">
-        <f>COUNTA(output!C351:EQ351)</f>
-        <v>78</v>
+        <f>COUNTA(output!C359:EQ359)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2">
-        <f>COUNTA(output!C352:EQ352)</f>
-        <v>74</v>
+        <f>COUNTA(output!C360:EQ360)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2">
-        <f>COUNTA(output!C353:EQ353)</f>
-        <v>72</v>
+        <f>COUNTA(output!C361:EQ361)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2">
-        <f>COUNTA(output!C354:EQ354)</f>
-        <v>3</v>
+        <f>COUNTA(output!C362:EQ362)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2">
-        <f>COUNTA(output!C355:EQ355)</f>
-        <v>4</v>
+        <f>COUNTA(output!C363:EQ363)</f>
+        <v>35</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2">
-        <f>COUNTA(output!C356:EQ356)</f>
-        <v>3</v>
+        <f>COUNTA(output!C364:EQ364)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2">
-        <f>COUNTA(output!C357:EQ357)</f>
-        <v>2</v>
+        <f>COUNTA(output!C365:EQ365)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2">
-        <f>COUNTA(output!C358:EQ358)</f>
+        <f>COUNTA(output!C366:EQ366)</f>
         <v>4</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2">
-        <f>COUNTA(output!C359:EQ359)</f>
-        <v>12</v>
+        <f>COUNTA(output!C367:EQ367)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2">
-        <f>COUNTA(output!C360:EQ360)</f>
-        <v>81</v>
+        <f>COUNTA(output!C368:EQ368)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2">
-        <f>COUNTA(output!C361:EQ361)</f>
-        <v>2</v>
+        <f>COUNTA(output!C369:EQ369)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2">
-        <f>COUNTA(output!C362:EQ362)</f>
-        <v>101</v>
+        <f>COUNTA(output!C370:EQ370)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2">
-        <f>COUNTA(output!C363:EQ363)</f>
-        <v>35</v>
+        <f>COUNTA(output!C371:EQ371)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2">
-        <f>COUNTA(output!C364:EQ364)</f>
-        <v>5</v>
+        <f>COUNTA(output!C372:EQ372)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2">
-        <f>COUNTA(output!C365:EQ365)</f>
-        <v>7</v>
+        <f>COUNTA(output!C373:EQ373)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2">
-        <f>COUNTA(output!C366:EQ366)</f>
-        <v>4</v>
+        <f>COUNTA(output!C374:EQ374)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2">
-        <f>COUNTA(output!C367:EQ367)</f>
-        <v>86</v>
+        <f>COUNTA(output!C375:EQ375)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2">
-        <f>COUNTA(output!C368:EQ368)</f>
-        <v>3</v>
+        <f>COUNTA(output!C376:EQ376)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2">
-        <f>COUNTA(output!C369:EQ369)</f>
-        <v>75</v>
+        <f>COUNTA(output!C377:EQ377)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2">
-        <f>COUNTA(output!C370:EQ370)</f>
-        <v>58</v>
+        <f>COUNTA(output!C378:EQ378)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2">
-        <f>COUNTA(output!C371:EQ371)</f>
-        <v>65</v>
+        <f>COUNTA(output!C379:EQ379)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2">
-        <f>COUNTA(output!C372:EQ372)</f>
-        <v>81</v>
+        <f>COUNTA(output!C380:EQ380)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2">
-        <f>COUNTA(output!C373:EQ373)</f>
-        <v>68</v>
+        <f>COUNTA(output!C381:EQ381)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2">
-        <f>COUNTA(output!C374:EQ374)</f>
-        <v>2</v>
+        <f>COUNTA(output!C382:EQ382)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2">
-        <f>COUNTA(output!C375:EQ375)</f>
-        <v>89</v>
+        <f>COUNTA(output!C383:EQ383)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2">
-        <f>COUNTA(output!C376:EQ376)</f>
-        <v>74</v>
+        <f>COUNTA(output!C384:EQ384)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2">
-        <f>COUNTA(output!C377:EQ377)</f>
-        <v>98</v>
+        <f>COUNTA(output!C385:EQ385)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2">
-        <f>COUNTA(output!C378:EQ378)</f>
-        <v>64</v>
+        <f>COUNTA(output!C386:EQ386)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2">
-        <f>COUNTA(output!C379:EQ379)</f>
-        <v>96</v>
+        <f>COUNTA(output!C387:EQ387)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2">
-        <f>COUNTA(output!C380:EQ380)</f>
-        <v>2</v>
+        <f>COUNTA(output!C388:EQ388)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2">
-        <f>COUNTA(output!C381:EQ381)</f>
-        <v>64</v>
+        <f>COUNTA(output!C389:EQ389)</f>
+        <v>58</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2">
-        <f>COUNTA(output!C382:EQ382)</f>
-        <v>81</v>
+        <f>COUNTA(output!C390:EQ390)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2">
-        <f>COUNTA(output!C383:EQ383)</f>
-        <v>79</v>
+        <f>COUNTA(output!C391:EQ391)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2">
-        <f>COUNTA(output!C384:EQ384)</f>
-        <v>2</v>
+        <f>COUNTA(output!C392:EQ392)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2">
-        <f>COUNTA(output!C385:EQ385)</f>
+        <f>COUNTA(output!C393:EQ393)</f>
         <v>4</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2">
-        <f>COUNTA(output!C386:EQ386)</f>
-        <v>3</v>
+        <f>COUNTA(output!C394:EQ394)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2">
-        <f>COUNTA(output!C387:EQ387)</f>
-        <v>83</v>
+        <f>COUNTA(output!C395:EQ395)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2">
-        <f>COUNTA(output!C388:EQ388)</f>
-        <v>3</v>
+        <f>COUNTA(output!C396:EQ396)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2">
-        <f>COUNTA(output!C389:EQ389)</f>
-        <v>58</v>
+        <f>COUNTA(output!C397:EQ397)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2">
-        <f>COUNTA(output!C390:EQ390)</f>
-        <v>4</v>
+        <f>COUNTA(output!C398:EQ398)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2">
-        <f>COUNTA(output!C391:EQ391)</f>
-        <v>2</v>
+        <f>COUNTA(output!C399:EQ399)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2">
-        <f>COUNTA(output!C392:EQ392)</f>
-        <v>81</v>
+        <f>COUNTA(output!C400:EQ400)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2">
-        <f>COUNTA(output!C393:EQ393)</f>
-        <v>4</v>
+        <f>COUNTA(output!C401:EQ401)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2">
-        <f>COUNTA(output!C394:EQ394)</f>
-        <v>94</v>
+        <f>COUNTA(output!C402:EQ402)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2">
-        <f>COUNTA(output!C395:EQ395)</f>
-        <v>3</v>
+        <f>COUNTA(output!C403:EQ403)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2">
-        <f>COUNTA(output!C396:EQ396)</f>
-        <v>95</v>
+        <f>COUNTA(output!C404:EQ404)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2">
-        <f>COUNTA(output!C397:EQ397)</f>
-        <v>92</v>
+        <f>COUNTA(output!C405:EQ405)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2">
-        <f>COUNTA(output!C398:EQ398)</f>
-        <v>73</v>
+        <f>COUNTA(output!C406:EQ406)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2">
-        <f>COUNTA(output!C399:EQ399)</f>
-        <v>4</v>
+        <f>COUNTA(output!C407:EQ407)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2">
-        <f>COUNTA(output!C400:EQ400)</f>
-        <v>4</v>
+        <f>COUNTA(output!C408:EQ408)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2">
-        <f>COUNTA(output!C401:EQ401)</f>
-        <v>74</v>
+        <f>COUNTA(output!C409:EQ409)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2">
-        <f>COUNTA(output!C402:EQ402)</f>
-        <v>3</v>
+        <f>COUNTA(output!C410:EQ410)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2">
-        <f>COUNTA(output!C403:EQ403)</f>
-        <v>75</v>
+        <f>COUNTA(output!C411:EQ411)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2">
-        <f>COUNTA(output!C404:EQ404)</f>
-        <v>105</v>
+        <f>COUNTA(output!C412:EQ412)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2">
-        <f>COUNTA(output!C405:EQ405)</f>
-        <v>2</v>
+        <f>COUNTA(output!C413:EQ413)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2">
-        <f>COUNTA(output!C406:EQ406)</f>
-        <v>4</v>
+        <f>COUNTA(output!C414:EQ414)</f>
+        <v>75</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2">
-        <f>COUNTA(output!C407:EQ407)</f>
-        <v>3</v>
+        <f>COUNTA(output!C415:EQ415)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2">
-        <f>COUNTA(output!C408:EQ408)</f>
-        <v>96</v>
+        <f>COUNTA(output!C416:EQ416)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2">
-        <f>COUNTA(output!C409:EQ409)</f>
-        <v>5</v>
+        <f>COUNTA(output!C417:EQ417)</f>
+        <v>112</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2">
-        <f>COUNTA(output!C410:EQ410)</f>
-        <v>5</v>
+        <f>COUNTA(output!C418:EQ418)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2">
-        <f>COUNTA(output!C411:EQ411)</f>
-        <v>2</v>
+        <f>COUNTA(output!C419:EQ419)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2">
-        <f>COUNTA(output!C412:EQ412)</f>
+        <f>COUNTA(output!C420:EQ420)</f>
         <v>2</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2">
-        <f>COUNTA(output!C413:EQ413)</f>
-        <v>3</v>
+        <f>COUNTA(output!C421:EQ421)</f>
+        <v>96</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2">
-        <f>COUNTA(output!C414:EQ414)</f>
-        <v>75</v>
+        <f>COUNTA(output!C422:EQ422)</f>
+        <v>109</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2">
-        <f>COUNTA(output!C415:EQ415)</f>
-        <v>97</v>
+        <f>COUNTA(output!C423:EQ423)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2">
-        <f>COUNTA(output!C416:EQ416)</f>
-        <v>79</v>
+        <f>COUNTA(output!C424:EQ424)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2">
-        <f>COUNTA(output!C417:EQ417)</f>
-        <v>112</v>
+        <f>COUNTA(output!C425:EQ425)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2">
-        <f>COUNTA(output!C418:EQ418)</f>
-        <v>63</v>
+        <f>COUNTA(output!C426:EQ426)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2">
-        <f>COUNTA(output!C419:EQ419)</f>
-        <v>3</v>
+        <f>COUNTA(output!C427:EQ427)</f>
+        <v>23</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2">
-        <f>COUNTA(output!C420:EQ420)</f>
+        <f>COUNTA(output!C428:EQ428)</f>
         <v>2</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2">
-        <f>COUNTA(output!C421:EQ421)</f>
-        <v>96</v>
+        <f>COUNTA(output!C429:EQ429)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2">
-        <f>COUNTA(output!C422:EQ422)</f>
-        <v>109</v>
+        <f>COUNTA(output!C430:EQ430)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2">
-        <f>COUNTA(output!C423:EQ423)</f>
-        <v>60</v>
+        <f>COUNTA(output!C431:EQ431)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2">
-        <f>COUNTA(output!C424:EQ424)</f>
-        <v>85</v>
+        <f>COUNTA(output!C432:EQ432)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2">
-        <f>COUNTA(output!C425:EQ425)</f>
-        <v>88</v>
+        <f>COUNTA(output!C433:EQ433)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2">
-        <f>COUNTA(output!C426:EQ426)</f>
-        <v>88</v>
+        <f>COUNTA(output!C434:EQ434)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2">
-        <f>COUNTA(output!C427:EQ427)</f>
-        <v>23</v>
+        <f>COUNTA(output!C435:EQ435)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2">
-        <f>COUNTA(output!C428:EQ428)</f>
-        <v>2</v>
+        <f>COUNTA(output!C436:EQ436)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2">
-        <f>COUNTA(output!C429:EQ429)</f>
-        <v>77</v>
+        <f>COUNTA(output!C437:EQ437)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2">
-        <f>COUNTA(output!C430:EQ430)</f>
-        <v>4</v>
+        <f>COUNTA(output!C438:EQ438)</f>
+        <v>13</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2">
-        <f>COUNTA(output!C431:EQ431)</f>
-        <v>74</v>
+        <f>COUNTA(output!C439:EQ439)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2">
-        <f>COUNTA(output!C432:EQ432)</f>
-        <v>91</v>
+        <f>COUNTA(output!C440:EQ440)</f>
+        <v>84</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2">
-        <f>COUNTA(output!C433:EQ433)</f>
-        <v>2</v>
+        <f>COUNTA(output!C441:EQ441)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2">
-        <f>COUNTA(output!C434:EQ434)</f>
-        <v>65</v>
+        <f>COUNTA(output!C442:EQ442)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2">
-        <f>COUNTA(output!C435:EQ435)</f>
-        <v>3</v>
+        <f>COUNTA(output!C443:EQ443)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2">
-        <f>COUNTA(output!C436:EQ436)</f>
-        <v>69</v>
+        <f>COUNTA(output!C444:EQ444)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2">
-        <f>COUNTA(output!C437:EQ437)</f>
-        <v>5</v>
+        <f>COUNTA(output!C445:EQ445)</f>
+        <v>59</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2">
-        <f>COUNTA(output!C438:EQ438)</f>
-        <v>13</v>
+        <f>COUNTA(output!C446:EQ446)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2">
-        <f>COUNTA(output!C439:EQ439)</f>
-        <v>2</v>
+        <f>COUNTA(output!C447:EQ447)</f>
+        <v>41</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2">
-        <f>COUNTA(output!C440:EQ440)</f>
-        <v>84</v>
+        <f>COUNTA(output!C448:EQ448)</f>
+        <v>118</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2">
-        <f>COUNTA(output!C441:EQ441)</f>
-        <v>99</v>
+        <f>COUNTA(output!C449:EQ449)</f>
+        <v>100</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2">
-        <f>COUNTA(output!C442:EQ442)</f>
-        <v>93</v>
+        <f>COUNTA(output!C450:EQ450)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2">
-        <f>COUNTA(output!C443:EQ443)</f>
-        <v>43</v>
+        <f>COUNTA(output!C451:EQ451)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2">
-        <f>COUNTA(output!C444:EQ444)</f>
-        <v>4</v>
+        <f>COUNTA(output!C452:EQ452)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2">
-        <f>COUNTA(output!C445:EQ445)</f>
-        <v>59</v>
+        <f>COUNTA(output!C453:EQ453)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2">
-        <f>COUNTA(output!C446:EQ446)</f>
-        <v>79</v>
+        <f>COUNTA(output!C454:EQ454)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2">
-        <f>COUNTA(output!C447:EQ447)</f>
-        <v>41</v>
+        <f>COUNTA(output!C455:EQ455)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2">
-        <f>COUNTA(output!C448:EQ448)</f>
-        <v>118</v>
+        <f>COUNTA(output!C456:EQ456)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2">
-        <f>COUNTA(output!C449:EQ449)</f>
-        <v>100</v>
+        <f>COUNTA(output!C457:EQ457)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2">
-        <f>COUNTA(output!C450:EQ450)</f>
-        <v>3</v>
+        <f>COUNTA(output!C458:EQ458)</f>
+        <v>84</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2">
-        <f>COUNTA(output!C451:EQ451)</f>
-        <v>4</v>
+        <f>COUNTA(output!C459:EQ459)</f>
+        <v>76</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2">
-        <f>COUNTA(output!C452:EQ452)</f>
-        <v>78</v>
+        <f>COUNTA(output!C460:EQ460)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2">
-        <f>COUNTA(output!C453:EQ453)</f>
-        <v>82</v>
+        <f>COUNTA(output!C461:EQ461)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2">
-        <f>COUNTA(output!C454:EQ454)</f>
-        <v>92</v>
+        <f>COUNTA(output!C462:EQ462)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2">
-        <f>COUNTA(output!C455:EQ455)</f>
-        <v>92</v>
+        <f>COUNTA(output!C463:EQ463)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2">
-        <f>COUNTA(output!C456:EQ456)</f>
-        <v>92</v>
+        <f>COUNTA(output!C464:EQ464)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2">
-        <f>COUNTA(output!C457:EQ457)</f>
-        <v>86</v>
+        <f>COUNTA(output!C465:EQ465)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2">
-        <f>COUNTA(output!C458:EQ458)</f>
-        <v>84</v>
+        <f>COUNTA(output!C466:EQ466)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2">
-        <f>COUNTA(output!C459:EQ459)</f>
-        <v>76</v>
+        <f>COUNTA(output!C467:EQ467)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2">
-        <f>COUNTA(output!C460:EQ460)</f>
-        <v>4</v>
+        <f>COUNTA(output!C468:EQ468)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2">
-        <f>COUNTA(output!C461:EQ461)</f>
-        <v>12</v>
+        <f>COUNTA(output!C469:EQ469)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2">
-        <f>COUNTA(output!C462:EQ462)</f>
-        <v>3</v>
+        <f>COUNTA(output!C470:EQ470)</f>
+        <v>33</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2">
-        <f>COUNTA(output!C463:EQ463)</f>
+        <f>COUNTA(output!C471:EQ471)</f>
         <v>4</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2">
-        <f>COUNTA(output!C464:EQ464)</f>
-        <v>91</v>
+        <f>COUNTA(output!C472:EQ472)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2">
-        <f>COUNTA(output!C465:EQ465)</f>
-        <v>2</v>
+        <f>COUNTA(output!C473:EQ473)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2">
-        <f>COUNTA(output!C466:EQ466)</f>
-        <v>89</v>
+        <f>COUNTA(output!C474:EQ474)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2">
-        <f>COUNTA(output!C467:EQ467)</f>
-        <v>7</v>
+        <f>COUNTA(output!C475:EQ475)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2">
-        <f>COUNTA(output!C468:EQ468)</f>
-        <v>69</v>
+        <f>COUNTA(output!C476:EQ476)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2">
-        <f>COUNTA(output!C469:EQ469)</f>
-        <v>88</v>
+        <f>COUNTA(output!C477:EQ477)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2">
-        <f>COUNTA(output!C470:EQ470)</f>
-        <v>33</v>
+        <f>COUNTA(output!C478:EQ478)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2">
-        <f>COUNTA(output!C471:EQ471)</f>
-        <v>4</v>
+        <f>COUNTA(output!C479:EQ479)</f>
+        <v>63</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2">
-        <f>COUNTA(output!C472:EQ472)</f>
-        <v>83</v>
+        <f>COUNTA(output!C480:EQ480)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2">
-        <f>COUNTA(output!C473:EQ473)</f>
-        <v>5</v>
+        <f>COUNTA(output!C481:EQ481)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2">
-        <f>COUNTA(output!C474:EQ474)</f>
-        <v>4</v>
+        <f>COUNTA(output!C482:EQ482)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2">
-        <f>COUNTA(output!C475:EQ475)</f>
-        <v>73</v>
+        <f>COUNTA(output!C483:EQ483)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2">
-        <f>COUNTA(output!C476:EQ476)</f>
-        <v>2</v>
+        <f>COUNTA(output!C484:EQ484)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2">
-        <f>COUNTA(output!C477:EQ477)</f>
-        <v>2</v>
+        <f>COUNTA(output!C485:EQ485)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2">
-        <f>COUNTA(output!C478:EQ478)</f>
-        <v>2</v>
+        <f>COUNTA(output!C486:EQ486)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2">
-        <f>COUNTA(output!C479:EQ479)</f>
-        <v>63</v>
+        <f>COUNTA(output!C487:EQ487)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2">
-        <f>COUNTA(output!C480:EQ480)</f>
-        <v>3</v>
+        <f>COUNTA(output!C488:EQ488)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2">
-        <f>COUNTA(output!C481:EQ481)</f>
-        <v>87</v>
+        <f>COUNTA(output!C489:EQ489)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2">
-        <f>COUNTA(output!C482:EQ482)</f>
-        <v>2</v>
+        <f>COUNTA(output!C490:EQ490)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2">
-        <f>COUNTA(output!C483:EQ483)</f>
-        <v>98</v>
+        <f>COUNTA(output!C491:EQ491)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2">
-        <f>COUNTA(output!C484:EQ484)</f>
-        <v>92</v>
+        <f>COUNTA(output!C492:EQ492)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2">
-        <f>COUNTA(output!C485:EQ485)</f>
-        <v>69</v>
+        <f>COUNTA(output!C493:EQ493)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2">
-        <f>COUNTA(output!C486:EQ486)</f>
-        <v>65</v>
+        <f>COUNTA(output!C494:EQ494)</f>
+        <v>66</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2">
-        <f>COUNTA(output!C487:EQ487)</f>
-        <v>3</v>
+        <f>COUNTA(output!C495:EQ495)</f>
+        <v>43</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2">
-        <f>COUNTA(output!C488:EQ488)</f>
-        <v>4</v>
+        <f>COUNTA(output!C496:EQ496)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2">
-        <f>COUNTA(output!C489:EQ489)</f>
-        <v>6</v>
+        <f>COUNTA(output!C497:EQ497)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2">
-        <f>COUNTA(output!C490:EQ490)</f>
-        <v>98</v>
+        <f>COUNTA(output!C498:EQ498)</f>
+        <v>73</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2">
-        <f>COUNTA(output!C491:EQ491)</f>
-        <v>3</v>
+        <f>COUNTA(output!C499:EQ499)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2">
-        <f>COUNTA(output!C492:EQ492)</f>
+        <f>COUNTA(output!C500:EQ500)</f>
         <v>2</v>
       </c>
     </row>
     <row r="500">
       <c r="A500" s="2">
-        <f>COUNTA(output!C493:EQ493)</f>
-        <v>66</v>
+        <f>COUNTA(output!C501:EQ501)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="501">
       <c r="A501" s="2">
-        <f>COUNTA(output!C494:EQ494)</f>
-        <v>66</v>
+        <f>COUNTA(output!C502:EQ502)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="502">
       <c r="A502" s="2">
-        <f>COUNTA(output!C495:EQ495)</f>
-        <v>43</v>
+        <f>COUNTA(output!C503:EQ503)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="503">
       <c r="A503" s="2">
-        <f>COUNTA(output!C496:EQ496)</f>
-        <v>77</v>
+        <f>COUNTA(output!C504:EQ504)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="504">
       <c r="A504" s="2">
-        <f>COUNTA(output!C497:EQ497)</f>
-        <v>3</v>
+        <f>COUNTA(output!C505:EQ505)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="505">
       <c r="A505" s="2">
-        <f>COUNTA(output!C498:EQ498)</f>
-        <v>73</v>
+        <f>COUNTA(output!C506:EQ506)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="506">
       <c r="A506" s="2">
-        <f>COUNTA(output!C499:EQ499)</f>
-        <v>2</v>
+        <f>COUNTA(output!C507:EQ507)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="507">
       <c r="A507" s="2">
-        <f>COUNTA(output!C500:EQ500)</f>
+        <f>COUNTA(output!C508:EQ508)</f>
         <v>2</v>
       </c>
     </row>
     <row r="508">
       <c r="A508" s="2">
-        <f>COUNTA(output!C501:EQ501)</f>
-        <v>3</v>
+        <f>COUNTA(output!C509:EQ509)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="509">
       <c r="A509" s="2">
-        <f>COUNTA(output!C502:EQ502)</f>
+        <f>COUNTA(output!C510:EQ510)</f>
         <v>4</v>
       </c>
     </row>
     <row r="510">
       <c r="A510" s="2">
-        <f>COUNTA(output!C503:EQ503)</f>
-        <v>2</v>
+        <f>COUNTA(output!C511:EQ511)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="511">
       <c r="A511" s="2">
-        <f>COUNTA(output!C504:EQ504)</f>
-        <v>4</v>
+        <f>COUNTA(output!C512:EQ512)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="512">
       <c r="A512" s="2">
-        <f>COUNTA(output!C505:EQ505)</f>
-        <v>91</v>
+        <f>COUNTA(output!C513:EQ513)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="513">
       <c r="A513" s="2">
-        <f>COUNTA(output!C506:EQ506)</f>
-        <v>4</v>
+        <f>COUNTA(output!C514:EQ514)</f>
+        <v>6</v>
       </c>
     </row>
     <row r="514">
       <c r="A514" s="2">
-        <f>COUNTA(output!C507:EQ507)</f>
-        <v>92</v>
+        <f>COUNTA(output!C515:EQ515)</f>
+        <v>12</v>
       </c>
     </row>
     <row r="515">
       <c r="A515" s="2">
-        <f>COUNTA(output!C508:EQ508)</f>
-        <v>2</v>
+        <f>COUNTA(output!C516:EQ516)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="516">
       <c r="A516" s="2">
-        <f>COUNTA(output!C509:EQ509)</f>
-        <v>78</v>
+        <f>COUNTA(output!C517:EQ517)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="517">
       <c r="A517" s="2">
-        <f>COUNTA(output!C510:EQ510)</f>
-        <v>4</v>
+        <f>COUNTA(output!C518:EQ518)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="518">
       <c r="A518" s="2">
-        <f>COUNTA(output!C511:EQ511)</f>
-        <v>6</v>
+        <f>COUNTA(output!C519:EQ519)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="519">
       <c r="A519" s="2">
-        <f>COUNTA(output!C512:EQ512)</f>
-        <v>91</v>
+        <f>COUNTA(output!C520:EQ520)</f>
+        <v>78</v>
       </c>
     </row>
     <row r="520">
       <c r="A520" s="2">
-        <f>COUNTA(output!C513:EQ513)</f>
-        <v>15</v>
+        <f>COUNTA(output!C521:EQ521)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="521">
       <c r="A521" s="2">
-        <f>COUNTA(output!C514:EQ514)</f>
-        <v>6</v>
+        <f>COUNTA(output!C522:EQ522)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="522">
       <c r="A522" s="2">
-        <f>COUNTA(output!C515:EQ515)</f>
-        <v>12</v>
+        <f>COUNTA(output!C523:EQ523)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="523">
       <c r="A523" s="2">
-        <f>COUNTA(output!C516:EQ516)</f>
-        <v>68</v>
+        <f>COUNTA(output!C524:EQ524)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="524">
       <c r="A524" s="2">
-        <f>COUNTA(output!C517:EQ517)</f>
-        <v>97</v>
+        <f>COUNTA(output!C525:EQ525)</f>
+        <v>91</v>
       </c>
     </row>
     <row r="525">
       <c r="A525" s="2">
-        <f>COUNTA(output!C518:EQ518)</f>
-        <v>74</v>
+        <f>COUNTA(output!C526:EQ526)</f>
+        <v>9</v>
       </c>
     </row>
     <row r="526">
       <c r="A526" s="2">
-        <f>COUNTA(output!C519:EQ519)</f>
-        <v>4</v>
+        <f>COUNTA(output!C527:EQ527)</f>
+        <v>77</v>
       </c>
     </row>
     <row r="527">
       <c r="A527" s="2">
-        <f>COUNTA(output!C520:EQ520)</f>
-        <v>78</v>
+        <f>COUNTA(output!C528:EQ528)</f>
+        <v>107</v>
       </c>
     </row>
     <row r="528">
       <c r="A528" s="2">
-        <f>COUNTA(output!C521:EQ521)</f>
-        <v>93</v>
+        <f>COUNTA(output!C529:EQ529)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="529">
       <c r="A529" s="2">
-        <f>COUNTA(output!C522:EQ522)</f>
-        <v>91</v>
+        <f>COUNTA(output!C530:EQ530)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="530">
       <c r="A530" s="2">
-        <f>COUNTA(output!C523:EQ523)</f>
-        <v>85</v>
+        <f>COUNTA(output!C531:EQ531)</f>
+        <v>93</v>
       </c>
     </row>
     <row r="531">
       <c r="A531" s="2">
-        <f>COUNTA(output!C524:EQ524)</f>
-        <v>2</v>
+        <f>COUNTA(output!C532:EQ532)</f>
+        <v>113</v>
       </c>
     </row>
     <row r="532">
       <c r="A532" s="2">
-        <f>COUNTA(output!C525:EQ525)</f>
-        <v>91</v>
+        <f>COUNTA(output!C533:EQ533)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="533">
       <c r="A533" s="2">
-        <f>COUNTA(output!C526:EQ526)</f>
-        <v>9</v>
+        <f>COUNTA(output!C534:EQ534)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="534">
       <c r="A534" s="2">
-        <f>COUNTA(output!C527:EQ527)</f>
-        <v>77</v>
+        <f>COUNTA(output!C535:EQ535)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="535">
       <c r="A535" s="2">
-        <f>COUNTA(output!C528:EQ528)</f>
-        <v>107</v>
+        <f>COUNTA(output!C536:EQ536)</f>
+        <v>65</v>
       </c>
     </row>
     <row r="536">
       <c r="A536" s="2">
-        <f>COUNTA(output!C529:EQ529)</f>
-        <v>60</v>
+        <f>COUNTA(output!C537:EQ537)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
       <c r="A537" s="2">
-        <f>COUNTA(output!C530:EQ530)</f>
-        <v>80</v>
+        <f>COUNTA(output!C538:EQ538)</f>
+        <v>83</v>
       </c>
     </row>
     <row r="538">
       <c r="A538" s="2">
-        <f>COUNTA(output!C531:EQ531)</f>
-        <v>93</v>
+        <f>COUNTA(output!C539:EQ539)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="539">
       <c r="A539" s="2">
-        <f>COUNTA(output!C532:EQ532)</f>
-        <v>113</v>
+        <f>COUNTA(output!C540:EQ540)</f>
+        <v>111</v>
       </c>
     </row>
     <row r="540">
       <c r="A540" s="2">
-        <f>COUNTA(output!C533:EQ533)</f>
-        <v>71</v>
+        <f>COUNTA(output!C541:EQ541)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="541">
       <c r="A541" s="2">
-        <f>COUNTA(output!C534:EQ534)</f>
-        <v>4</v>
+        <f>COUNTA(output!C542:EQ542)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="542">
       <c r="A542" s="2">
-        <f>COUNTA(output!C535:EQ535)</f>
-        <v>99</v>
+        <f>COUNTA(output!C543:EQ543)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="543">
       <c r="A543" s="2">
-        <f>COUNTA(output!C536:EQ536)</f>
-        <v>65</v>
+        <f>COUNTA(output!C544:EQ544)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="544">
       <c r="A544" s="2">
-        <f>COUNTA(output!C537:EQ537)</f>
-        <v>10</v>
+        <f>COUNTA(output!C545:EQ545)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="545">
       <c r="A545" s="2">
-        <f>COUNTA(output!C538:EQ538)</f>
-        <v>83</v>
+        <f>COUNTA(output!C546:EQ546)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="546">
       <c r="A546" s="2">
-        <f>COUNTA(output!C539:EQ539)</f>
-        <v>5</v>
+        <f>COUNTA(output!C547:EQ547)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="547">
       <c r="A547" s="2">
-        <f>COUNTA(output!C540:EQ540)</f>
-        <v>111</v>
+        <f>COUNTA(output!C548:EQ548)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="548">
       <c r="A548" s="2">
-        <f>COUNTA(output!C541:EQ541)</f>
-        <v>4</v>
+        <f>COUNTA(output!C549:EQ549)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="549">
       <c r="A549" s="2">
-        <f>COUNTA(output!C542:EQ542)</f>
-        <v>3</v>
+        <f>COUNTA(output!C550:EQ550)</f>
+        <v>67</v>
       </c>
     </row>
     <row r="550">
       <c r="A550" s="2">
-        <f>COUNTA(output!C543:EQ543)</f>
-        <v>87</v>
+        <f>COUNTA(output!C551:EQ551)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="551">
       <c r="A551" s="2">
-        <f>COUNTA(output!C544:EQ544)</f>
-        <v>98</v>
+        <f>COUNTA(output!C552:EQ552)</f>
+        <v>85</v>
       </c>
     </row>
     <row r="552">
       <c r="A552" s="2">
-        <f>COUNTA(output!C545:EQ545)</f>
-        <v>3</v>
+        <f>COUNTA(output!C553:EQ553)</f>
+        <v>86</v>
       </c>
     </row>
     <row r="553">
       <c r="A553" s="2">
-        <f>COUNTA(output!C546:EQ546)</f>
-        <v>89</v>
+        <f>COUNTA(output!C554:EQ554)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="554">
       <c r="A554" s="2">
-        <f>COUNTA(output!C547:EQ547)</f>
-        <v>74</v>
+        <f>COUNTA(output!C555:EQ555)</f>
+        <v>21</v>
       </c>
     </row>
     <row r="555">
       <c r="A555" s="2">
-        <f>COUNTA(output!C548:EQ548)</f>
-        <v>3</v>
+        <f>COUNTA(output!C556:EQ556)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="556">
       <c r="A556" s="2">
-        <f>COUNTA(output!C549:EQ549)</f>
-        <v>68</v>
+        <f>COUNTA(output!C557:EQ557)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="557">
       <c r="A557" s="2">
-        <f>COUNTA(output!C550:EQ550)</f>
-        <v>67</v>
+        <f>COUNTA(output!C558:EQ558)</f>
+        <v>69</v>
       </c>
     </row>
     <row r="558">
       <c r="A558" s="2">
-        <f>COUNTA(output!C551:EQ551)</f>
-        <v>3</v>
+        <f>COUNTA(output!C559:EQ559)</f>
+        <v>81</v>
       </c>
     </row>
     <row r="559">
       <c r="A559" s="2">
-        <f>COUNTA(output!C552:EQ552)</f>
-        <v>85</v>
+        <f>COUNTA(output!C560:EQ560)</f>
+        <v>97</v>
       </c>
     </row>
     <row r="560">
       <c r="A560" s="2">
-        <f>COUNTA(output!C553:EQ553)</f>
-        <v>86</v>
+        <f>COUNTA(output!C561:EQ561)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="561">
       <c r="A561" s="2">
-        <f>COUNTA(output!C554:EQ554)</f>
-        <v>71</v>
+        <f>COUNTA(output!C562:EQ562)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="562">
       <c r="A562" s="2">
-        <f>COUNTA(output!C555:EQ555)</f>
-        <v>21</v>
+        <f>COUNTA(output!C563:EQ563)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="563">
       <c r="A563" s="2">
-        <f>COUNTA(output!C556:EQ556)</f>
-        <v>2</v>
+        <f>COUNTA(output!C564:EQ564)</f>
+        <v>79</v>
       </c>
     </row>
     <row r="564">
       <c r="A564" s="2">
-        <f>COUNTA(output!C557:EQ557)</f>
-        <v>4</v>
+        <f>COUNTA(output!C565:EQ565)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="565">
       <c r="A565" s="2">
-        <f>COUNTA(output!C558:EQ558)</f>
-        <v>69</v>
+        <f>COUNTA(output!C566:EQ566)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="566">
       <c r="A566" s="2">
-        <f>COUNTA(output!C559:EQ559)</f>
-        <v>81</v>
+        <f>COUNTA(output!C567:EQ567)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="567">
       <c r="A567" s="2">
-        <f>COUNTA(output!C560:EQ560)</f>
-        <v>97</v>
+        <f>COUNTA(output!C568:EQ568)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="568">
       <c r="A568" s="2">
-        <f>COUNTA(output!C561:EQ561)</f>
-        <v>8</v>
+        <f>COUNTA(output!C569:EQ569)</f>
+        <v>80</v>
       </c>
     </row>
     <row r="569">
       <c r="A569" s="2">
-        <f>COUNTA(output!C562:EQ562)</f>
-        <v>2</v>
+        <f>COUNTA(output!C570:EQ570)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="570">
       <c r="A570" s="2">
-        <f>COUNTA(output!C563:EQ563)</f>
+        <f>COUNTA(output!C571:EQ571)</f>
         <v>3</v>
       </c>
     </row>
     <row r="571">
       <c r="A571" s="2">
-        <f>COUNTA(output!C564:EQ564)</f>
-        <v>79</v>
+        <f>COUNTA(output!C572:EQ572)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="572">
       <c r="A572" s="2">
-        <f>COUNTA(output!C565:EQ565)</f>
-        <v>70</v>
+        <f>COUNTA(output!C573:EQ573)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="573">
       <c r="A573" s="2">
-        <f>COUNTA(output!C566:EQ566)</f>
-        <v>3</v>
+        <f>COUNTA(output!C574:EQ574)</f>
+        <v>74</v>
       </c>
     </row>
     <row r="574">
       <c r="A574" s="2">
-        <f>COUNTA(output!C567:EQ567)</f>
-        <v>87</v>
+        <f>COUNTA(output!C575:EQ575)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="575">
       <c r="A575" s="2">
-        <f>COUNTA(output!C568:EQ568)</f>
-        <v>60</v>
+        <f>COUNTA(output!C576:EQ576)</f>
+        <v>64</v>
       </c>
     </row>
     <row r="576">
       <c r="A576" s="2">
-        <f>COUNTA(output!C569:EQ569)</f>
-        <v>80</v>
+        <f>COUNTA(output!C577:EQ577)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="577">
       <c r="A577" s="2">
-        <f>COUNTA(output!C570:EQ570)</f>
-        <v>4</v>
+        <f>COUNTA(output!C578:EQ578)</f>
+        <v>118</v>
       </c>
     </row>
     <row r="578">
       <c r="A578" s="2">
-        <f>COUNTA(output!C571:EQ571)</f>
-        <v>3</v>
+        <f>COUNTA(output!C579:EQ579)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="579">
       <c r="A579" s="2">
-        <f>COUNTA(output!C572:EQ572)</f>
-        <v>4</v>
+        <f>COUNTA(output!C580:EQ580)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="580">
       <c r="A580" s="2">
-        <f>COUNTA(output!C573:EQ573)</f>
-        <v>4</v>
+        <f>COUNTA(output!C581:EQ581)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="581">
       <c r="A581" s="2">
-        <f>COUNTA(output!C574:EQ574)</f>
-        <v>74</v>
+        <f>COUNTA(output!C582:EQ582)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="582">
       <c r="A582" s="2">
-        <f>COUNTA(output!C575:EQ575)</f>
-        <v>7</v>
+        <f>COUNTA(output!C583:EQ583)</f>
+        <v>71</v>
       </c>
     </row>
     <row r="583">
       <c r="A583" s="2">
-        <f>COUNTA(output!C576:EQ576)</f>
-        <v>64</v>
+        <f>COUNTA(output!C584:EQ584)</f>
+        <v>72</v>
       </c>
     </row>
     <row r="584">
       <c r="A584" s="2">
-        <f>COUNTA(output!C577:EQ577)</f>
-        <v>2</v>
+        <f>COUNTA(output!C585:EQ585)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="585">
       <c r="A585" s="2">
-        <f>COUNTA(output!C578:EQ578)</f>
-        <v>118</v>
+        <f>COUNTA(output!C586:EQ586)</f>
+        <v>8</v>
       </c>
     </row>
     <row r="586">
       <c r="A586" s="2">
-        <f>COUNTA(output!C579:EQ579)</f>
-        <v>99</v>
+        <f>COUNTA(output!C587:EQ587)</f>
+        <v>82</v>
       </c>
     </row>
     <row r="587">
       <c r="A587" s="2">
-        <f>COUNTA(output!C580:EQ580)</f>
-        <v>2</v>
+        <f>COUNTA(output!C588:EQ588)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="588">
       <c r="A588" s="2">
-        <f>COUNTA(output!C581:EQ581)</f>
-        <v>82</v>
+        <f>COUNTA(output!C589:EQ589)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="589">
       <c r="A589" s="2">
-        <f>COUNTA(output!C582:EQ582)</f>
-        <v>2</v>
+        <f>COUNTA(output!C590:EQ590)</f>
+        <v>99</v>
       </c>
     </row>
     <row r="590">
       <c r="A590" s="2">
-        <f>COUNTA(output!C583:EQ583)</f>
-        <v>71</v>
+        <f>COUNTA(output!C591:EQ591)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="591">
       <c r="A591" s="2">
-        <f>COUNTA(output!C584:EQ584)</f>
-        <v>72</v>
+        <f>COUNTA(output!C592:EQ592)</f>
+        <v>87</v>
       </c>
     </row>
     <row r="592">
       <c r="A592" s="2">
-        <f>COUNTA(output!C585:EQ585)</f>
-        <v>4</v>
+        <f>COUNTA(output!C593:EQ593)</f>
+        <v>98</v>
       </c>
     </row>
     <row r="593">
       <c r="A593" s="2">
-        <f>COUNTA(output!C586:EQ586)</f>
-        <v>8</v>
+        <f>COUNTA(output!C594:EQ594)</f>
+        <v>4</v>
       </c>
     </row>
     <row r="594">
       <c r="A594" s="2">
-        <f>COUNTA(output!C587:EQ587)</f>
-        <v>82</v>
+        <f>COUNTA(output!C595:EQ595)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="595">
       <c r="A595" s="2">
-        <f>COUNTA(output!C588:EQ588)</f>
-        <v>5</v>
+        <f>COUNTA(output!C596:EQ596)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="596">
       <c r="A596" s="2">
-        <f>COUNTA(output!C589:EQ589)</f>
-        <v>2</v>
+        <f>COUNTA(output!C597:EQ597)</f>
+        <v>103</v>
       </c>
     </row>
     <row r="597">
       <c r="A597" s="2">
-        <f>COUNTA(output!C590:EQ590)</f>
-        <v>99</v>
+        <f>COUNTA(output!C598:EQ598)</f>
+        <v>101</v>
       </c>
     </row>
     <row r="598">
       <c r="A598" s="2">
-        <f>COUNTA(output!C591:EQ591)</f>
-        <v>4</v>
+        <f>COUNTA(output!C599:EQ599)</f>
+        <v>68</v>
       </c>
     </row>
     <row r="599">
       <c r="A599" s="2">
-        <f>COUNTA(output!C592:EQ592)</f>
-        <v>87</v>
+        <f>COUNTA(output!C600:EQ600)</f>
+        <v>92</v>
       </c>
     </row>
     <row r="600">
       <c r="A600" s="2">
-        <f>COUNTA(output!C593:EQ593)</f>
-        <v>98</v>
+        <f>COUNTA(output!C601:EQ601)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="601">
       <c r="A601" s="2">
-        <f>COUNTA(output!C594:EQ594)</f>
-        <v>4</v>
+        <f>COUNTA(output!C602:EQ602)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="602">
       <c r="A602" s="2">
-        <f>COUNTA(output!C595:EQ595)</f>
-        <v>60</v>
+        <f>COUNTA(output!C603:EQ603)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="603">
       <c r="A603" s="2">
-        <f>COUNTA(output!C596:EQ596)</f>
-        <v>3</v>
+        <f>COUNTA(output!C604:EQ604)</f>
+        <v>88</v>
       </c>
     </row>
     <row r="604">
       <c r="A604" s="2">
-        <f>COUNTA(output!C597:EQ597)</f>
-        <v>103</v>
+        <f>COUNTA(output!C605:EQ605)</f>
+        <v>7</v>
       </c>
     </row>
     <row r="605">
       <c r="A605" s="2">
-        <f>COUNTA(output!C598:EQ598)</f>
-        <v>101</v>
+        <f>COUNTA(output!C606:EQ606)</f>
+        <v>94</v>
       </c>
     </row>
     <row r="606">
       <c r="A606" s="2">
-        <f>COUNTA(output!C599:EQ599)</f>
-        <v>68</v>
+        <f>COUNTA(output!C607:EQ607)</f>
+        <v>5</v>
       </c>
     </row>
     <row r="607">
       <c r="A607" s="2">
-        <f>COUNTA(output!C600:EQ600)</f>
-        <v>92</v>
+        <f>COUNTA(output!C608:EQ608)</f>
+        <v>89</v>
       </c>
     </row>
     <row r="608">
       <c r="A608" s="2">
-        <f>COUNTA(output!C601:EQ601)</f>
+        <f>COUNTA(output!C609:EQ609)</f>
         <v>3</v>
       </c>
     </row>
     <row r="609">
       <c r="A609" s="2">
-        <f>COUNTA(output!C602:EQ602)</f>
-        <v>3</v>
+        <f>COUNTA(output!C610:EQ610)</f>
+        <v>105</v>
       </c>
     </row>
     <row r="610">
       <c r="A610" s="2">
-        <f>COUNTA(output!C603:EQ603)</f>
-        <v>3</v>
+        <f>COUNTA(output!C611:EQ611)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="611">
       <c r="A611" s="2">
-        <f>COUNTA(output!C604:EQ604)</f>
+        <f>COUNTA(output!C612:EQ612)</f>
         <v>88</v>
       </c>
     </row>
     <row r="612">
       <c r="A612" s="2">
-        <f>COUNTA(output!C605:EQ605)</f>
-        <v>7</v>
+        <f>COUNTA(output!C613:EQ613)</f>
+        <v>15</v>
       </c>
     </row>
     <row r="613">
       <c r="A613" s="2">
-        <f>COUNTA(output!C606:EQ606)</f>
-        <v>94</v>
+        <f>COUNTA(output!C614:EQ614)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="614">
       <c r="A614" s="2">
-        <f>COUNTA(output!C607:EQ607)</f>
-        <v>5</v>
+        <f>COUNTA(output!C615:EQ615)</f>
+        <v>2</v>
       </c>
     </row>
     <row r="615">
       <c r="A615" s="2">
-        <f>COUNTA(output!C608:EQ608)</f>
-        <v>89</v>
+        <f>COUNTA(output!C616:EQ616)</f>
+        <v>106</v>
       </c>
     </row>
     <row r="616">
       <c r="A616" s="2">
-        <f>COUNTA(output!C609:EQ609)</f>
-        <v>3</v>
+        <f>COUNTA(output!C617:EQ617)</f>
+        <v>95</v>
       </c>
     </row>
     <row r="617">
       <c r="A617" s="2">
-        <f>COUNTA(output!C610:EQ610)</f>
-        <v>105</v>
-      </c>
-    </row>
-    <row r="618">
-      <c r="A618" s="2">
-        <f>COUNTA(output!C611:EQ611)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="619">
-      <c r="A619" s="2">
-        <f>COUNTA(output!C612:EQ612)</f>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="620">
-      <c r="A620" s="2">
-        <f>COUNTA(output!C613:EQ613)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="621">
-      <c r="A621" s="2">
-        <f>COUNTA(output!C614:EQ614)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="622">
-      <c r="A622" s="2">
-        <f>COUNTA(output!C615:EQ615)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="623">
-      <c r="A623" s="2">
-        <f>COUNTA(output!C616:EQ616)</f>
-        <v>106</v>
-      </c>
-    </row>
-    <row r="624">
-      <c r="A624" s="2">
-        <f>COUNTA(output!C617:EQ617)</f>
-        <v>95</v>
-      </c>
-    </row>
-    <row r="625">
-      <c r="A625" s="2">
         <f>COUNTA(output!C618:EQ618)</f>
         <v>66</v>
       </c>
